--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/食品类农村居民消费价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/食品类农村居民消费价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7443 +478,7443 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>89.8</v>
+        <v>88.5</v>
       </c>
       <c r="E2" t="n">
-        <v>96.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>96.2</v>
+        <v>96.8</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>90.09999999999999</v>
+        <v>121.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>92.3</v>
+        <v>87.8</v>
       </c>
       <c r="E3" t="n">
-        <v>97.7</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>92.8</v>
+        <v>78.2</v>
       </c>
       <c r="G3" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>107</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1</v>
+        <v>99.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>94.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>97.2</v>
       </c>
       <c r="F4" t="n">
-        <v>96.5</v>
+        <v>76.7</v>
       </c>
       <c r="G4" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>105.5</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.40000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>88.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>95.2</v>
+        <v>101.3</v>
       </c>
       <c r="F5" t="n">
-        <v>81.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>121.9</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.2</v>
+        <v>105.3</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>96.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>78.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>98.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>142.7</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.2</v>
+        <v>103.5</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>87.09999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>97.2</v>
+        <v>105.3</v>
       </c>
       <c r="F7" t="n">
-        <v>76.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>126.1</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.7</v>
+        <v>102.8</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>86.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
-        <v>101.3</v>
+        <v>103.1</v>
       </c>
       <c r="F8" t="n">
-        <v>78.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="G8" t="n">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>102.6</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.3</v>
+        <v>100.9</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>86.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>99.3</v>
       </c>
       <c r="F9" t="n">
-        <v>81.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>96.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.5</v>
+        <v>99.5</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>86.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="E10" t="n">
-        <v>105.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>81.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>97.8</v>
+        <v>96.5</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>97.90000000000001</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>89.8</v>
       </c>
       <c r="E11" t="n">
-        <v>103.1</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>82.3</v>
+        <v>90</v>
       </c>
       <c r="G11" t="n">
-        <v>97.5</v>
+        <v>96.2</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>94.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>87.3</v>
+        <v>92.3</v>
       </c>
       <c r="E12" t="n">
-        <v>99.3</v>
+        <v>97.7</v>
       </c>
       <c r="F12" t="n">
-        <v>91.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="G12" t="n">
-        <v>97.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.09999999999999</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.5</v>
+        <v>101.1</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>88.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>96.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F13" t="n">
-        <v>89.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G13" t="n">
-        <v>96.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>96.7</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.40000000000001</v>
+        <v>102.7071</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>101.9</v>
+        <v>97</v>
       </c>
       <c r="E14" t="n">
-        <v>101.1</v>
+        <v>101.889</v>
       </c>
       <c r="F14" t="n">
-        <v>111.7</v>
+        <v>96.0955</v>
       </c>
       <c r="G14" t="n">
-        <v>100.5</v>
+        <v>99.5479</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>105.2</v>
+        <v>94.9194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>100.9</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="F15" t="n">
-        <v>108.1</v>
+        <v>95.7</v>
       </c>
       <c r="G15" t="n">
-        <v>99.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>89.59999999999999</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>99.5</v>
+        <v>97.7</v>
       </c>
       <c r="E16" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
       <c r="F16" t="n">
-        <v>106.4</v>
+        <v>100.7</v>
       </c>
       <c r="G16" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.7071</v>
+        <v>98.5</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>101.889</v>
+        <v>102.2</v>
       </c>
       <c r="F17" t="n">
-        <v>96.0955</v>
+        <v>104.6</v>
       </c>
       <c r="G17" t="n">
-        <v>99.5479</v>
+        <v>100.7</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>94.9194</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E18" t="n">
-        <v>99.7</v>
+        <v>102.8</v>
       </c>
       <c r="F18" t="n">
-        <v>95.7</v>
+        <v>106.3</v>
       </c>
       <c r="G18" t="n">
-        <v>97.3</v>
+        <v>100.8</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>81.2</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.8</v>
+        <v>95</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97.7</v>
+        <v>100.3</v>
       </c>
       <c r="E19" t="n">
-        <v>101.4</v>
+        <v>102.3</v>
       </c>
       <c r="F19" t="n">
-        <v>100.7</v>
+        <v>108.1</v>
       </c>
       <c r="G19" t="n">
-        <v>99.3</v>
+        <v>100.5</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>93.40000000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E20" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="F20" t="n">
-        <v>104.6</v>
+        <v>112.3</v>
       </c>
       <c r="G20" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>106.1</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>99.8</v>
+        <v>101.4</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8</v>
+        <v>101.1</v>
       </c>
       <c r="F21" t="n">
-        <v>106.3</v>
+        <v>105.8</v>
       </c>
       <c r="G21" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>111.6</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
+        <v>102</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="G22" t="n">
         <v>100.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>108.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100.5</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>113</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>101</v>
+        <v>101.9</v>
       </c>
       <c r="E23" t="n">
-        <v>101.9</v>
+        <v>101.1</v>
       </c>
       <c r="F23" t="n">
-        <v>112.3</v>
+        <v>111.7</v>
       </c>
       <c r="G23" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>122.3</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="E24" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="F24" t="n">
-        <v>105.8</v>
+        <v>108.1</v>
       </c>
       <c r="G24" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>114.4</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>102</v>
+        <v>99.5</v>
       </c>
       <c r="E25" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="F25" t="n">
-        <v>109.1</v>
+        <v>106.4</v>
       </c>
       <c r="G25" t="n">
-        <v>100.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>109.2</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>96.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F26" t="n">
-        <v>96.40000000000001</v>
+        <v>108.7</v>
       </c>
       <c r="G26" t="n">
-        <v>99.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>110.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>96.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>97.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>100.2</v>
+        <v>101.9</v>
       </c>
       <c r="F27" t="n">
-        <v>98.90000000000001</v>
+        <v>113.3</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>109.4</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="E28" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="F28" t="n">
-        <v>99.90000000000001</v>
+        <v>108.6</v>
       </c>
       <c r="G28" t="n">
-        <v>100.7</v>
+        <v>99.3</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>109.1</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>98.8</v>
+        <v>99.5</v>
       </c>
       <c r="E29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="G29" t="n">
         <v>98.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>98.2</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.8</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3</v>
+        <v>104.1</v>
       </c>
       <c r="G30" t="n">
-        <v>100.3</v>
+        <v>98.7</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>97.59999999999999</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="E31" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="F31" t="n">
-        <v>108.6</v>
+        <v>103.9</v>
       </c>
       <c r="G31" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>88.2</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>99.5</v>
+        <v>97.7</v>
       </c>
       <c r="E32" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="F32" t="n">
-        <v>105.5</v>
+        <v>99.2</v>
       </c>
       <c r="G32" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>86.5</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>94.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E33" t="n">
         <v>99.3</v>
       </c>
-      <c r="E33" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="F33" t="n">
-        <v>104.1</v>
+        <v>100.1</v>
       </c>
       <c r="G33" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>95.8</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="F34" t="n">
-        <v>103.9</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>99.5</v>
+      </c>
       <c r="I34" t="n">
-        <v>100.9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>97.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>99.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>98.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>94.8</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>99.3</v>
+        <v>100.2</v>
       </c>
       <c r="F36" t="n">
-        <v>100.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>102.6</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>97.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E37" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="F37" t="n">
-        <v>98.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>99.5</v>
-      </c>
+        <v>100.7</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>105</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.7</v>
+        <v>98.42</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>103.6</v>
+        <v>99.3</v>
       </c>
       <c r="E38" t="n">
-        <v>108.9</v>
+        <v>100.99</v>
       </c>
       <c r="F38" t="n">
-        <v>105.4</v>
+        <v>96.8</v>
       </c>
       <c r="G38" t="n">
-        <v>105.5</v>
+        <v>101.66</v>
       </c>
       <c r="H38" t="n">
-        <v>106.2</v>
+        <v>101.7</v>
       </c>
       <c r="I38" t="n">
-        <v>113.7</v>
+        <v>121.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.8965</v>
+        <v>97.0684</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>111.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>112.9656</v>
+        <v>99.4684</v>
       </c>
       <c r="F39" t="n">
-        <v>112.8564</v>
+        <v>93.1754</v>
       </c>
       <c r="G39" t="n">
-        <v>109.1477</v>
+        <v>101.1062</v>
       </c>
       <c r="H39" t="n">
-        <v>104</v>
+        <v>96.3</v>
       </c>
       <c r="I39" t="n">
-        <v>119.8397</v>
+        <v>125.847</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.5242</v>
+        <v>98.2</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>114.3</v>
+        <v>98.8</v>
       </c>
       <c r="E40" t="n">
-        <v>112.7144</v>
+        <v>99.2</v>
       </c>
       <c r="F40" t="n">
-        <v>113.1924</v>
+        <v>94.5</v>
       </c>
       <c r="G40" t="n">
-        <v>109.5697</v>
+        <v>102</v>
       </c>
       <c r="H40" t="n">
-        <v>103</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>121.1557</v>
+        <v>147.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.42</v>
+        <v>99.0752</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>100.99</v>
+        <v>100.0831</v>
       </c>
       <c r="F41" t="n">
-        <v>96.8</v>
+        <v>94.6506</v>
       </c>
       <c r="G41" t="n">
-        <v>101.66</v>
+        <v>102.2238</v>
       </c>
       <c r="H41" t="n">
-        <v>101.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>121.9</v>
+        <v>141.8656</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.0684</v>
+        <v>99.0354</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E42" t="n">
-        <v>99.4684</v>
+        <v>100.5502</v>
       </c>
       <c r="F42" t="n">
-        <v>93.1754</v>
+        <v>94.2688</v>
       </c>
       <c r="G42" t="n">
-        <v>101.1062</v>
+        <v>101.5572</v>
       </c>
       <c r="H42" t="n">
-        <v>96.3</v>
+        <v>104.5</v>
       </c>
       <c r="I42" t="n">
-        <v>125.847</v>
+        <v>114.689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>98.8</v>
+        <v>100.2</v>
       </c>
       <c r="E43" t="n">
-        <v>99.2</v>
+        <v>101.7</v>
       </c>
       <c r="F43" t="n">
-        <v>94.5</v>
+        <v>92.3</v>
       </c>
       <c r="G43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" t="n">
-        <v>91.59999999999999</v>
+        <v>107.6</v>
       </c>
       <c r="I43" t="n">
-        <v>147.3</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.0752</v>
+        <v>99.49720000000001</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E44" t="n">
-        <v>100.0831</v>
+        <v>103.4277</v>
       </c>
       <c r="F44" t="n">
-        <v>94.6506</v>
+        <v>93.91759999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>102.2238</v>
+        <v>101.3391</v>
       </c>
       <c r="H44" t="n">
-        <v>92.09999999999999</v>
+        <v>107.2</v>
       </c>
       <c r="I44" t="n">
-        <v>141.8656</v>
+        <v>94.9821</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.0354</v>
+        <v>100.3</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>100.1</v>
       </c>
       <c r="E45" t="n">
-        <v>100.5502</v>
+        <v>104.8</v>
       </c>
       <c r="F45" t="n">
-        <v>94.2688</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>101.5572</v>
+        <v>102.4</v>
       </c>
       <c r="H45" t="n">
-        <v>104.5</v>
+        <v>116</v>
       </c>
       <c r="I45" t="n">
-        <v>114.689</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.3</v>
+        <v>100.3535</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="E46" t="n">
-        <v>101.7</v>
+        <v>106.1696</v>
       </c>
       <c r="F46" t="n">
-        <v>92.3</v>
+        <v>100.3687</v>
       </c>
       <c r="G46" t="n">
-        <v>101</v>
+        <v>103.2135</v>
       </c>
       <c r="H46" t="n">
-        <v>107.6</v>
+        <v>110.1</v>
       </c>
       <c r="I46" t="n">
-        <v>97.09999999999999</v>
+        <v>108.0488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.49720000000001</v>
+        <v>101.7</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.1</v>
+        <v>103.6</v>
       </c>
       <c r="E47" t="n">
-        <v>103.4277</v>
+        <v>108.9</v>
       </c>
       <c r="F47" t="n">
-        <v>93.91759999999999</v>
+        <v>105.4</v>
       </c>
       <c r="G47" t="n">
-        <v>101.3391</v>
+        <v>105.5</v>
       </c>
       <c r="H47" t="n">
-        <v>107.2</v>
+        <v>106.2</v>
       </c>
       <c r="I47" t="n">
-        <v>94.9821</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.3</v>
+        <v>102.8965</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.1</v>
+        <v>111.1</v>
       </c>
       <c r="E48" t="n">
-        <v>104.8</v>
+        <v>112.9656</v>
       </c>
       <c r="F48" t="n">
-        <v>96.59999999999999</v>
+        <v>112.8564</v>
       </c>
       <c r="G48" t="n">
-        <v>102.4</v>
+        <v>109.1477</v>
       </c>
       <c r="H48" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I48" t="n">
-        <v>101.7</v>
+        <v>119.8397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.3535</v>
+        <v>103.5242</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.9</v>
+        <v>114.3</v>
       </c>
       <c r="E49" t="n">
-        <v>106.1696</v>
+        <v>112.7144</v>
       </c>
       <c r="F49" t="n">
-        <v>100.3687</v>
+        <v>113.1924</v>
       </c>
       <c r="G49" t="n">
-        <v>103.2135</v>
+        <v>109.5697</v>
       </c>
       <c r="H49" t="n">
-        <v>110.1</v>
+        <v>103</v>
       </c>
       <c r="I49" t="n">
-        <v>108.0488</v>
+        <v>121.1557</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>115.9688</v>
+        <v>107.025</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>129.9</v>
+        <v>115.6</v>
       </c>
       <c r="E50" t="n">
-        <v>118.3415</v>
+        <v>114.841</v>
       </c>
       <c r="F50" t="n">
-        <v>120.4101</v>
+        <v>114.7657</v>
       </c>
       <c r="G50" t="n">
-        <v>111.6161</v>
+        <v>109.67</v>
       </c>
       <c r="H50" t="n">
-        <v>102.3</v>
+        <v>105.2</v>
       </c>
       <c r="I50" t="n">
-        <v>90.9276</v>
+        <v>102.7935</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>113.2335</v>
+        <v>106.6916</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>120.2</v>
+        <v>118.9</v>
       </c>
       <c r="E51" t="n">
-        <v>112.461</v>
+        <v>110.7954</v>
       </c>
       <c r="F51" t="n">
-        <v>110.1018</v>
+        <v>113.4566</v>
       </c>
       <c r="G51" t="n">
-        <v>106.7671</v>
+        <v>107.7689</v>
       </c>
       <c r="H51" t="n">
-        <v>102.3</v>
+        <v>99.3</v>
       </c>
       <c r="I51" t="n">
-        <v>84.0762</v>
+        <v>92.92789999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>112.1119</v>
+        <v>112.2753</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>116.2</v>
+        <v>131.6</v>
       </c>
       <c r="E52" t="n">
-        <v>111.4821</v>
+        <v>114.3865</v>
       </c>
       <c r="F52" t="n">
-        <v>111.2576</v>
+        <v>116.3267</v>
       </c>
       <c r="G52" t="n">
-        <v>105.6588</v>
+        <v>110.3242</v>
       </c>
       <c r="H52" t="n">
-        <v>99.40000000000001</v>
+        <v>102.7</v>
       </c>
       <c r="I52" t="n">
-        <v>83.7517</v>
+        <v>86.22020000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>107.025</v>
+        <v>116.5768</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>115.6</v>
+        <v>135.2</v>
       </c>
       <c r="E53" t="n">
-        <v>114.841</v>
+        <v>117.7761</v>
       </c>
       <c r="F53" t="n">
-        <v>114.7657</v>
+        <v>120.0713</v>
       </c>
       <c r="G53" t="n">
-        <v>109.67</v>
+        <v>112.4642</v>
       </c>
       <c r="H53" t="n">
-        <v>105.2</v>
+        <v>110.2</v>
       </c>
       <c r="I53" t="n">
-        <v>102.7935</v>
+        <v>85.58199999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>106.6916</v>
+        <v>118.6244</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>118.9</v>
+        <v>133.2</v>
       </c>
       <c r="E54" t="n">
-        <v>110.7954</v>
+        <v>118.928</v>
       </c>
       <c r="F54" t="n">
-        <v>113.4566</v>
+        <v>119.123</v>
       </c>
       <c r="G54" t="n">
-        <v>107.7689</v>
+        <v>113.3855</v>
       </c>
       <c r="H54" t="n">
-        <v>99.3</v>
+        <v>106.4</v>
       </c>
       <c r="I54" t="n">
-        <v>92.92789999999999</v>
+        <v>95.44670000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>112.2753</v>
+        <v>119.793</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>131.6</v>
+        <v>133.5</v>
       </c>
       <c r="E55" t="n">
-        <v>114.3865</v>
+        <v>120.8026</v>
       </c>
       <c r="F55" t="n">
-        <v>116.3267</v>
+        <v>127.3505</v>
       </c>
       <c r="G55" t="n">
-        <v>110.3242</v>
+        <v>114.8555</v>
       </c>
       <c r="H55" t="n">
-        <v>102.7</v>
+        <v>97.7</v>
       </c>
       <c r="I55" t="n">
-        <v>86.22020000000001</v>
+        <v>112.5088</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>116.5768</v>
+        <v>118.8594</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>135.2</v>
+        <v>133.6</v>
       </c>
       <c r="E56" t="n">
-        <v>117.7761</v>
+        <v>121.7878</v>
       </c>
       <c r="F56" t="n">
-        <v>120.0713</v>
+        <v>129.4295</v>
       </c>
       <c r="G56" t="n">
-        <v>112.4642</v>
+        <v>115.7286</v>
       </c>
       <c r="H56" t="n">
-        <v>110.2</v>
+        <v>101.5</v>
       </c>
       <c r="I56" t="n">
-        <v>85.58199999999999</v>
+        <v>119.4138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>118.6244</v>
+        <v>117.3518</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>133.2</v>
+        <v>133.4</v>
       </c>
       <c r="E57" t="n">
-        <v>118.928</v>
+        <v>122.6881</v>
       </c>
       <c r="F57" t="n">
-        <v>119.123</v>
+        <v>128.0917</v>
       </c>
       <c r="G57" t="n">
-        <v>113.3855</v>
+        <v>115.5527</v>
       </c>
       <c r="H57" t="n">
-        <v>106.4</v>
+        <v>100.6</v>
       </c>
       <c r="I57" t="n">
-        <v>95.44670000000001</v>
+        <v>110.2431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>119.793</v>
+        <v>117.4559</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>133.5</v>
+        <v>133.3</v>
       </c>
       <c r="E58" t="n">
-        <v>120.8026</v>
+        <v>121.4035</v>
       </c>
       <c r="F58" t="n">
-        <v>127.3505</v>
+        <v>127.8792</v>
       </c>
       <c r="G58" t="n">
-        <v>114.8555</v>
+        <v>114.7955</v>
       </c>
       <c r="H58" t="n">
-        <v>97.7</v>
+        <v>99.3</v>
       </c>
       <c r="I58" t="n">
-        <v>112.5088</v>
+        <v>104.0358</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>118.8594</v>
+        <v>115.9688</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>133.6</v>
+        <v>129.9</v>
       </c>
       <c r="E59" t="n">
-        <v>121.7878</v>
+        <v>118.3415</v>
       </c>
       <c r="F59" t="n">
-        <v>129.4295</v>
+        <v>120.4101</v>
       </c>
       <c r="G59" t="n">
-        <v>115.7286</v>
+        <v>111.6161</v>
       </c>
       <c r="H59" t="n">
-        <v>101.5</v>
+        <v>102.3</v>
       </c>
       <c r="I59" t="n">
-        <v>119.4138</v>
+        <v>90.9276</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>117.3518</v>
+        <v>113.2335</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>133.4</v>
+        <v>120.2</v>
       </c>
       <c r="E60" t="n">
-        <v>122.6881</v>
+        <v>112.461</v>
       </c>
       <c r="F60" t="n">
-        <v>128.0917</v>
+        <v>110.1018</v>
       </c>
       <c r="G60" t="n">
-        <v>115.5527</v>
+        <v>106.7671</v>
       </c>
       <c r="H60" t="n">
-        <v>100.6</v>
+        <v>102.3</v>
       </c>
       <c r="I60" t="n">
-        <v>110.2431</v>
+        <v>84.0762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>117.4559</v>
+        <v>112.1119</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>133.3</v>
+        <v>116.2</v>
       </c>
       <c r="E61" t="n">
-        <v>121.4035</v>
+        <v>111.4821</v>
       </c>
       <c r="F61" t="n">
-        <v>127.8792</v>
+        <v>111.2576</v>
       </c>
       <c r="G61" t="n">
-        <v>114.7955</v>
+        <v>105.6588</v>
       </c>
       <c r="H61" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>104.0358</v>
+        <v>83.7517</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.9105</v>
+        <v>110.6794</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>99.2261</v>
+        <v>114.4</v>
       </c>
       <c r="E62" t="n">
-        <v>95.44110000000001</v>
+        <v>109.5765</v>
       </c>
       <c r="F62" t="n">
-        <v>98.41840000000001</v>
+        <v>110.9312</v>
       </c>
       <c r="G62" t="n">
-        <v>100.3955</v>
+        <v>104.6649</v>
       </c>
       <c r="H62" t="n">
-        <v>108.2348</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>116.9052</v>
+        <v>87.7017</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.9964</v>
+        <v>116.1488</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>99.7757</v>
+        <v>111.3</v>
       </c>
       <c r="E63" t="n">
-        <v>93.6454</v>
+        <v>115.864</v>
       </c>
       <c r="F63" t="n">
-        <v>98.7762</v>
+        <v>116.7115</v>
       </c>
       <c r="G63" t="n">
-        <v>100.4899</v>
+        <v>108.6251</v>
       </c>
       <c r="H63" t="n">
-        <v>111.527</v>
+        <v>98</v>
       </c>
       <c r="I63" t="n">
-        <v>122.4645</v>
+        <v>108.2784</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>104.9373</v>
+        <v>111.1315</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.3715</v>
+        <v>101.1</v>
       </c>
       <c r="E64" t="n">
-        <v>93.78100000000001</v>
+        <v>113.0377</v>
       </c>
       <c r="F64" t="n">
-        <v>95.59059999999999</v>
+        <v>112.2254</v>
       </c>
       <c r="G64" t="n">
-        <v>101.1135</v>
+        <v>105.6115</v>
       </c>
       <c r="H64" t="n">
-        <v>114.0651</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>126.9497</v>
+        <v>108.0617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>110.6794</v>
+        <v>106.1104</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.4</v>
+        <v>98.2</v>
       </c>
       <c r="E65" t="n">
-        <v>109.5765</v>
+        <v>109.222</v>
       </c>
       <c r="F65" t="n">
-        <v>110.9312</v>
+        <v>108.027</v>
       </c>
       <c r="G65" t="n">
-        <v>104.6649</v>
+        <v>102.8981</v>
       </c>
       <c r="H65" t="n">
-        <v>92.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="I65" t="n">
-        <v>87.7017</v>
+        <v>104.8223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>116.1488</v>
+        <v>102.8019</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>111.3</v>
+        <v>98.5</v>
       </c>
       <c r="E66" t="n">
-        <v>115.864</v>
+        <v>107.7836</v>
       </c>
       <c r="F66" t="n">
-        <v>116.7115</v>
+        <v>111.7981</v>
       </c>
       <c r="G66" t="n">
-        <v>108.6251</v>
+        <v>102.741</v>
       </c>
       <c r="H66" t="n">
-        <v>98</v>
+        <v>87.8</v>
       </c>
       <c r="I66" t="n">
-        <v>108.2784</v>
+        <v>109.5422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>111.1315</v>
+        <v>100.4411</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>101.1</v>
+        <v>98.8</v>
       </c>
       <c r="E67" t="n">
-        <v>113.0377</v>
+        <v>105.2411</v>
       </c>
       <c r="F67" t="n">
-        <v>112.2254</v>
+        <v>109.2481</v>
       </c>
       <c r="G67" t="n">
-        <v>105.6115</v>
+        <v>102.1169</v>
       </c>
       <c r="H67" t="n">
-        <v>93.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="I67" t="n">
-        <v>108.0617</v>
+        <v>108.5432</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>106.1104</v>
+        <v>101.1691</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>109.222</v>
+        <v>101.9168</v>
       </c>
       <c r="F68" t="n">
-        <v>108.027</v>
+        <v>106.6227</v>
       </c>
       <c r="G68" t="n">
-        <v>102.8981</v>
+        <v>101.7795</v>
       </c>
       <c r="H68" t="n">
-        <v>86.2</v>
+        <v>107.5</v>
       </c>
       <c r="I68" t="n">
-        <v>104.8223</v>
+        <v>114.7277</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.8019</v>
+        <v>102.306</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>98.5</v>
+        <v>99.1481</v>
       </c>
       <c r="E69" t="n">
-        <v>107.7836</v>
+        <v>98.6555</v>
       </c>
       <c r="F69" t="n">
-        <v>111.7981</v>
+        <v>102.3764</v>
       </c>
       <c r="G69" t="n">
-        <v>102.741</v>
+        <v>100.0043</v>
       </c>
       <c r="H69" t="n">
-        <v>87.8</v>
+        <v>100.872</v>
       </c>
       <c r="I69" t="n">
-        <v>109.5422</v>
+        <v>103.4874</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.4411</v>
+        <v>103.1591</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>98.8</v>
+        <v>98.9997</v>
       </c>
       <c r="E70" t="n">
-        <v>105.2411</v>
+        <v>96.9002</v>
       </c>
       <c r="F70" t="n">
-        <v>109.2481</v>
+        <v>98.6108</v>
       </c>
       <c r="G70" t="n">
-        <v>102.1169</v>
+        <v>99.43559999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>97.7</v>
+        <v>105.1873</v>
       </c>
       <c r="I70" t="n">
-        <v>108.5432</v>
+        <v>100.6249</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>101.1691</v>
+        <v>103.9105</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2261</v>
       </c>
       <c r="E71" t="n">
-        <v>101.9168</v>
+        <v>95.44110000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>106.6227</v>
+        <v>98.41840000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>101.7795</v>
+        <v>100.3955</v>
       </c>
       <c r="H71" t="n">
-        <v>107.5</v>
+        <v>108.2348</v>
       </c>
       <c r="I71" t="n">
-        <v>114.7277</v>
+        <v>116.9052</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>102.306</v>
+        <v>104.9964</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>99.1481</v>
+        <v>99.7757</v>
       </c>
       <c r="E72" t="n">
-        <v>98.6555</v>
+        <v>93.6454</v>
       </c>
       <c r="F72" t="n">
-        <v>102.3764</v>
+        <v>98.7762</v>
       </c>
       <c r="G72" t="n">
-        <v>100.0043</v>
+        <v>100.4899</v>
       </c>
       <c r="H72" t="n">
-        <v>100.872</v>
+        <v>111.527</v>
       </c>
       <c r="I72" t="n">
-        <v>103.4874</v>
+        <v>122.4645</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.1591</v>
+        <v>104.9373</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>98.9997</v>
+        <v>100.3715</v>
       </c>
       <c r="E73" t="n">
-        <v>96.9002</v>
+        <v>93.78100000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>98.6108</v>
+        <v>95.59059999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>99.43559999999999</v>
+        <v>101.1135</v>
       </c>
       <c r="H73" t="n">
-        <v>105.1873</v>
+        <v>114.0651</v>
       </c>
       <c r="I73" t="n">
-        <v>100.6249</v>
+        <v>126.9497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>101.86323873</v>
+        <v>103.00881948</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>103.66426833</v>
+        <v>100.95796695</v>
       </c>
       <c r="E74" t="n">
-        <v>102.76563398</v>
+        <v>95.04511431</v>
       </c>
       <c r="F74" t="n">
-        <v>104.20096164</v>
+        <v>94.12956106</v>
       </c>
       <c r="G74" t="n">
-        <v>102.23600065</v>
+        <v>102.61965466</v>
       </c>
       <c r="H74" t="n">
-        <v>107.42104721</v>
+        <v>121.67122491</v>
       </c>
       <c r="I74" t="n">
-        <v>92.25281793000001</v>
+        <v>136.13698519</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>101.85941161</v>
+        <v>98.36018267999999</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>104.93180015</v>
+        <v>100.90569992</v>
       </c>
       <c r="E75" t="n">
-        <v>108.32895741</v>
+        <v>92.97518162999999</v>
       </c>
       <c r="F75" t="n">
-        <v>109.29218051</v>
+        <v>89.04995323</v>
       </c>
       <c r="G75" t="n">
-        <v>104.38657461</v>
+        <v>100.61992633</v>
       </c>
       <c r="H75" t="n">
-        <v>105.03152669</v>
+        <v>123.23838326</v>
       </c>
       <c r="I75" t="n">
-        <v>94.78376323000001</v>
+        <v>116.74107562</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.04466458</v>
+        <v>97.69977446</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>107.48723883</v>
+        <v>100.92119752</v>
       </c>
       <c r="E76" t="n">
-        <v>113.95022246</v>
+        <v>91.96511481</v>
       </c>
       <c r="F76" t="n">
-        <v>115.47389275</v>
+        <v>90.37692695</v>
       </c>
       <c r="G76" t="n">
-        <v>107.29717997</v>
+        <v>100.22051228</v>
       </c>
       <c r="H76" t="n">
-        <v>105.50433182</v>
+        <v>129.87177282</v>
       </c>
       <c r="I76" t="n">
-        <v>100.12260981</v>
+        <v>110.25266758</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>103.00881948</v>
+        <v>98.19152146</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>100.95796695</v>
+        <v>101.28120318</v>
       </c>
       <c r="E77" t="n">
-        <v>95.04511431</v>
+        <v>91.19039648</v>
       </c>
       <c r="F77" t="n">
-        <v>94.12956106</v>
+        <v>91.32174042</v>
       </c>
       <c r="G77" t="n">
-        <v>102.61965466</v>
+        <v>101.28107325</v>
       </c>
       <c r="H77" t="n">
-        <v>121.67122491</v>
+        <v>139.23157243</v>
       </c>
       <c r="I77" t="n">
-        <v>136.13698519</v>
+        <v>117.47143214</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.36018267999999</v>
+        <v>99.50623468000001</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.90569992</v>
+        <v>101.93942121</v>
       </c>
       <c r="E78" t="n">
-        <v>92.97518162999999</v>
+        <v>90.46476523</v>
       </c>
       <c r="F78" t="n">
-        <v>89.04995323</v>
+        <v>88.76093576</v>
       </c>
       <c r="G78" t="n">
-        <v>100.61992633</v>
+        <v>101.23386026</v>
       </c>
       <c r="H78" t="n">
-        <v>123.23838326</v>
+        <v>146.38028989</v>
       </c>
       <c r="I78" t="n">
-        <v>116.74107562</v>
+        <v>113.98574322</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>97.69977446</v>
+        <v>100.56655563</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.92119752</v>
+        <v>102.63092486</v>
       </c>
       <c r="E79" t="n">
-        <v>91.96511481</v>
+        <v>90.61867401000001</v>
       </c>
       <c r="F79" t="n">
-        <v>90.37692695</v>
+        <v>86.80005749</v>
       </c>
       <c r="G79" t="n">
-        <v>100.22051228</v>
+        <v>101.27807777</v>
       </c>
       <c r="H79" t="n">
-        <v>129.87177282</v>
+        <v>154.30789758</v>
       </c>
       <c r="I79" t="n">
-        <v>110.25266758</v>
+        <v>111.84880691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>98.19152146</v>
+        <v>101.26289148</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.28120318</v>
+        <v>103.1636667</v>
       </c>
       <c r="E80" t="n">
-        <v>91.19039648</v>
+        <v>92.46173700999999</v>
       </c>
       <c r="F80" t="n">
-        <v>91.32174042</v>
+        <v>88.97072473</v>
       </c>
       <c r="G80" t="n">
-        <v>101.28107325</v>
+        <v>100.38068744</v>
       </c>
       <c r="H80" t="n">
-        <v>139.23157243</v>
+        <v>138.86266361</v>
       </c>
       <c r="I80" t="n">
-        <v>117.47143214</v>
+        <v>97.29774308</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.50623468000001</v>
+        <v>101.72149009</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.93942121</v>
+        <v>103.18082198</v>
       </c>
       <c r="E81" t="n">
-        <v>90.46476523</v>
+        <v>96.75643571000001</v>
       </c>
       <c r="F81" t="n">
-        <v>88.76093576</v>
+        <v>96.11403281</v>
       </c>
       <c r="G81" t="n">
-        <v>101.23386026</v>
+        <v>101.32170013</v>
       </c>
       <c r="H81" t="n">
-        <v>146.38028989</v>
+        <v>120.88750384</v>
       </c>
       <c r="I81" t="n">
-        <v>113.98574322</v>
+        <v>100.52951478</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.56655563</v>
+        <v>101.27342112</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>102.63092486</v>
+        <v>103.46426569</v>
       </c>
       <c r="E82" t="n">
-        <v>90.61867401000001</v>
+        <v>99.46581906999999</v>
       </c>
       <c r="F82" t="n">
-        <v>86.80005749</v>
+        <v>99.31827678000001</v>
       </c>
       <c r="G82" t="n">
-        <v>101.27807777</v>
+        <v>102.31242439</v>
       </c>
       <c r="H82" t="n">
-        <v>154.30789758</v>
+        <v>110.83126104</v>
       </c>
       <c r="I82" t="n">
-        <v>111.84880691</v>
+        <v>107.48979794</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>101.26289148</v>
+        <v>101.86323873</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>103.1636667</v>
+        <v>103.66426833</v>
       </c>
       <c r="E83" t="n">
-        <v>92.46173700999999</v>
+        <v>102.76563398</v>
       </c>
       <c r="F83" t="n">
-        <v>88.97072473</v>
+        <v>104.20096164</v>
       </c>
       <c r="G83" t="n">
-        <v>100.38068744</v>
+        <v>102.23600065</v>
       </c>
       <c r="H83" t="n">
-        <v>138.86266361</v>
+        <v>107.42104721</v>
       </c>
       <c r="I83" t="n">
-        <v>97.29774308</v>
+        <v>92.25281793000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101.72149009</v>
+        <v>101.85941161</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>103.18082198</v>
+        <v>104.93180015</v>
       </c>
       <c r="E84" t="n">
-        <v>96.75643571000001</v>
+        <v>108.32895741</v>
       </c>
       <c r="F84" t="n">
-        <v>96.11403281</v>
+        <v>109.29218051</v>
       </c>
       <c r="G84" t="n">
-        <v>101.32170013</v>
+        <v>104.38657461</v>
       </c>
       <c r="H84" t="n">
-        <v>120.88750384</v>
+        <v>105.03152669</v>
       </c>
       <c r="I84" t="n">
-        <v>100.52951478</v>
+        <v>94.78376323000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.27342112</v>
+        <v>102.04466458</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>103.46426569</v>
+        <v>107.48723883</v>
       </c>
       <c r="E85" t="n">
-        <v>99.46581906999999</v>
+        <v>113.95022246</v>
       </c>
       <c r="F85" t="n">
-        <v>99.31827678000001</v>
+        <v>115.47389275</v>
       </c>
       <c r="G85" t="n">
-        <v>102.31242439</v>
+        <v>107.29717997</v>
       </c>
       <c r="H85" t="n">
-        <v>110.83126104</v>
+        <v>105.50433182</v>
       </c>
       <c r="I85" t="n">
-        <v>107.48979794</v>
+        <v>100.12260981</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>108.9</v>
+        <v>100.86531459</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.6</v>
+        <v>107.28080371</v>
       </c>
       <c r="E86" t="n">
-        <v>138</v>
+        <v>113.9731011</v>
       </c>
       <c r="F86" t="n">
-        <v>116</v>
+        <v>116.96703071</v>
       </c>
       <c r="G86" t="n">
-        <v>118.9</v>
+        <v>106.1784359</v>
       </c>
       <c r="H86" t="n">
-        <v>110.2</v>
+        <v>106.23784265</v>
       </c>
       <c r="I86" t="n">
-        <v>134.2</v>
+        <v>88.71064787</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>108.73698139</v>
+        <v>104.01294298</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.45957922</v>
+        <v>106.99915001</v>
       </c>
       <c r="E87" t="n">
-        <v>138.00618389</v>
+        <v>115.40823589</v>
       </c>
       <c r="F87" t="n">
-        <v>112.10505007</v>
+        <v>124.06070549</v>
       </c>
       <c r="G87" t="n">
-        <v>119.24967467</v>
+        <v>107.16465779</v>
       </c>
       <c r="H87" t="n">
-        <v>113.823833</v>
+        <v>108.54771841</v>
       </c>
       <c r="I87" t="n">
-        <v>133.10186081</v>
+        <v>91.51457315</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>107.74189231</v>
+        <v>105.91119519</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>104.91596587</v>
+        <v>106.49606861</v>
       </c>
       <c r="E88" t="n">
-        <v>138.12505528</v>
+        <v>116.08778912</v>
       </c>
       <c r="F88" t="n">
-        <v>107.15253435</v>
+        <v>125.2727293</v>
       </c>
       <c r="G88" t="n">
-        <v>117.59076095</v>
+        <v>108.30869217</v>
       </c>
       <c r="H88" t="n">
-        <v>113.30765065</v>
+        <v>106.4376675</v>
       </c>
       <c r="I88" t="n">
-        <v>112.98452579</v>
+        <v>102.36577798</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.86531459</v>
+        <v>104.47840845</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>107.28080371</v>
+        <v>105.95104265</v>
       </c>
       <c r="E89" t="n">
-        <v>113.9731011</v>
+        <v>117.30343466</v>
       </c>
       <c r="F89" t="n">
-        <v>116.96703071</v>
+        <v>125.03370609</v>
       </c>
       <c r="G89" t="n">
-        <v>106.1784359</v>
+        <v>107.65420764</v>
       </c>
       <c r="H89" t="n">
-        <v>106.23784265</v>
+        <v>94.86822775</v>
       </c>
       <c r="I89" t="n">
-        <v>88.71064787</v>
+        <v>102.82961072</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>104.01294298</v>
+        <v>104.68531758</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>106.99915001</v>
+        <v>105.69036339</v>
       </c>
       <c r="E90" t="n">
-        <v>115.40823589</v>
+        <v>126.71031389</v>
       </c>
       <c r="F90" t="n">
-        <v>124.06070549</v>
+        <v>130.41228725</v>
       </c>
       <c r="G90" t="n">
-        <v>107.16465779</v>
+        <v>109.47479942</v>
       </c>
       <c r="H90" t="n">
-        <v>108.54771841</v>
+        <v>89.28049777</v>
       </c>
       <c r="I90" t="n">
-        <v>91.51457315</v>
+        <v>98.87639439</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>105.91119519</v>
+        <v>106.06632764</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.49606861</v>
+        <v>105.78202464</v>
       </c>
       <c r="E91" t="n">
-        <v>116.08778912</v>
+        <v>136.50438993</v>
       </c>
       <c r="F91" t="n">
-        <v>125.2727293</v>
+        <v>133.34233427</v>
       </c>
       <c r="G91" t="n">
-        <v>108.30869217</v>
+        <v>112.94347992</v>
       </c>
       <c r="H91" t="n">
-        <v>106.4376675</v>
+        <v>84.34587996</v>
       </c>
       <c r="I91" t="n">
-        <v>102.36577798</v>
+        <v>106.7097906</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>104.47840845</v>
+        <v>107.74791068</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>105.95104265</v>
+        <v>105.84010745</v>
       </c>
       <c r="E92" t="n">
-        <v>117.30343466</v>
+        <v>146.93572516</v>
       </c>
       <c r="F92" t="n">
-        <v>125.03370609</v>
+        <v>127.62247148</v>
       </c>
       <c r="G92" t="n">
-        <v>107.65420764</v>
+        <v>117.37973086</v>
       </c>
       <c r="H92" t="n">
-        <v>94.86822775</v>
+        <v>88.8663469</v>
       </c>
       <c r="I92" t="n">
-        <v>102.82961072</v>
+        <v>119.77196581</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>104.68531758</v>
+        <v>108.85605239</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>105.69036339</v>
+        <v>106.38342172</v>
       </c>
       <c r="E93" t="n">
-        <v>126.71031389</v>
+        <v>149.96851209</v>
       </c>
       <c r="F93" t="n">
-        <v>130.41228725</v>
+        <v>122.80351647</v>
       </c>
       <c r="G93" t="n">
-        <v>109.47479942</v>
+        <v>120.24033735</v>
       </c>
       <c r="H93" t="n">
-        <v>89.28049777</v>
+        <v>99.42783934000001</v>
       </c>
       <c r="I93" t="n">
-        <v>98.87639439</v>
+        <v>124.99338965</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>106.06632764</v>
+        <v>109.63443442</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>105.78202464</v>
+        <v>106.41209864</v>
       </c>
       <c r="E94" t="n">
-        <v>136.50438993</v>
+        <v>143.07283445</v>
       </c>
       <c r="F94" t="n">
-        <v>133.34233427</v>
+        <v>119.37826955</v>
       </c>
       <c r="G94" t="n">
-        <v>112.94347992</v>
+        <v>118.61276404</v>
       </c>
       <c r="H94" t="n">
-        <v>84.34587996</v>
+        <v>106.25729216</v>
       </c>
       <c r="I94" t="n">
-        <v>106.7097906</v>
+        <v>115.48285008</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>107.74791068</v>
+        <v>108.9</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>105.84010745</v>
+        <v>106.6</v>
       </c>
       <c r="E95" t="n">
-        <v>146.93572516</v>
+        <v>138</v>
       </c>
       <c r="F95" t="n">
-        <v>127.62247148</v>
+        <v>116</v>
       </c>
       <c r="G95" t="n">
-        <v>117.37973086</v>
+        <v>118.9</v>
       </c>
       <c r="H95" t="n">
-        <v>88.8663469</v>
+        <v>110.2</v>
       </c>
       <c r="I95" t="n">
-        <v>119.77196581</v>
+        <v>134.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>108.85605239</v>
+        <v>108.73698139</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.38342172</v>
+        <v>106.45957922</v>
       </c>
       <c r="E96" t="n">
-        <v>149.96851209</v>
+        <v>138.00618389</v>
       </c>
       <c r="F96" t="n">
-        <v>122.80351647</v>
+        <v>112.10505007</v>
       </c>
       <c r="G96" t="n">
-        <v>120.24033735</v>
+        <v>119.24967467</v>
       </c>
       <c r="H96" t="n">
-        <v>99.42783934000001</v>
+        <v>113.823833</v>
       </c>
       <c r="I96" t="n">
-        <v>124.99338965</v>
+        <v>133.10186081</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>109.63443442</v>
+        <v>107.74189231</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.41209864</v>
+        <v>104.91596587</v>
       </c>
       <c r="E97" t="n">
-        <v>143.07283445</v>
+        <v>138.12505528</v>
       </c>
       <c r="F97" t="n">
-        <v>119.37826955</v>
+        <v>107.15253435</v>
       </c>
       <c r="G97" t="n">
-        <v>118.61276404</v>
+        <v>117.59076095</v>
       </c>
       <c r="H97" t="n">
-        <v>106.25729216</v>
+        <v>113.30765065</v>
       </c>
       <c r="I97" t="n">
-        <v>115.48285008</v>
+        <v>112.98452579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>113.19700062</v>
+        <v>109.46752384</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>106.51300165</v>
+        <v>104.90579083</v>
       </c>
       <c r="E98" t="n">
-        <v>104.46757015</v>
+        <v>140.69513124</v>
       </c>
       <c r="F98" t="n">
-        <v>102.92177213</v>
+        <v>107.09513447</v>
       </c>
       <c r="G98" t="n">
-        <v>107.33546833</v>
+        <v>119.00312171</v>
       </c>
       <c r="H98" t="n">
-        <v>106.80576355</v>
+        <v>110.61895106</v>
       </c>
       <c r="I98" t="n">
-        <v>99.01474082</v>
+        <v>116.3055311</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>111.15832031</v>
+        <v>113.77133802</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>105.09857939</v>
+        <v>105.2</v>
       </c>
       <c r="E99" t="n">
-        <v>99.58973272</v>
+        <v>144.78918491</v>
       </c>
       <c r="F99" t="n">
-        <v>102.02867175</v>
+        <v>107.38089403</v>
       </c>
       <c r="G99" t="n">
-        <v>104.39449054</v>
+        <v>123.55564499</v>
       </c>
       <c r="H99" t="n">
-        <v>103.18136871</v>
+        <v>111.37690557</v>
       </c>
       <c r="I99" t="n">
-        <v>98.25865580999999</v>
+        <v>146.99452942</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>109.95302643</v>
+        <v>111.18400772</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>103.63685034</v>
+        <v>106.16182985</v>
       </c>
       <c r="E100" t="n">
-        <v>97.23848692999999</v>
+        <v>145.48844142</v>
       </c>
       <c r="F100" t="n">
-        <v>101.57233345</v>
+        <v>105.78019695</v>
       </c>
       <c r="G100" t="n">
-        <v>102.80216091</v>
+        <v>122.49360373</v>
       </c>
       <c r="H100" t="n">
-        <v>100.11473832</v>
+        <v>106.16145521</v>
       </c>
       <c r="I100" t="n">
-        <v>106.11046983</v>
+        <v>125.0098937</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>109.46752384</v>
+        <v>118.0499364</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>104.90579083</v>
+        <v>107.07578141</v>
       </c>
       <c r="E101" t="n">
-        <v>140.69513124</v>
+        <v>147.18986925</v>
       </c>
       <c r="F101" t="n">
-        <v>107.09513447</v>
+        <v>106.1637851</v>
       </c>
       <c r="G101" t="n">
-        <v>119.00312171</v>
+        <v>123.10235974</v>
       </c>
       <c r="H101" t="n">
-        <v>110.61895106</v>
+        <v>111.33127773</v>
       </c>
       <c r="I101" t="n">
-        <v>116.3055311</v>
+        <v>115.5783601</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>113.77133802</v>
+        <v>121.13358157</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>105.2</v>
+        <v>108.68571037</v>
       </c>
       <c r="E102" t="n">
-        <v>144.78918491</v>
+        <v>136.22437888</v>
       </c>
       <c r="F102" t="n">
-        <v>107.38089403</v>
+        <v>104.08392777</v>
       </c>
       <c r="G102" t="n">
-        <v>123.55564499</v>
+        <v>120.50027175</v>
       </c>
       <c r="H102" t="n">
-        <v>111.37690557</v>
+        <v>110.80265214</v>
       </c>
       <c r="I102" t="n">
-        <v>146.99452942</v>
+        <v>111.67491612</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>111.18400772</v>
+        <v>120.78724535</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>106.16182985</v>
+        <v>108.70970237</v>
       </c>
       <c r="E103" t="n">
-        <v>145.48844142</v>
+        <v>124.92992914</v>
       </c>
       <c r="F103" t="n">
-        <v>105.78019695</v>
+        <v>103.12398362</v>
       </c>
       <c r="G103" t="n">
-        <v>122.49360373</v>
+        <v>117.21162411</v>
       </c>
       <c r="H103" t="n">
-        <v>106.16145521</v>
+        <v>114.45976175</v>
       </c>
       <c r="I103" t="n">
-        <v>125.0098937</v>
+        <v>109.59418665</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>118.0499364</v>
+        <v>119.39784624</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>107.07578141</v>
+        <v>108.74113555</v>
       </c>
       <c r="E104" t="n">
-        <v>147.18986925</v>
+        <v>113.20601917</v>
       </c>
       <c r="F104" t="n">
-        <v>106.1637851</v>
+        <v>105.74868763</v>
       </c>
       <c r="G104" t="n">
-        <v>123.10235974</v>
+        <v>113.55065703</v>
       </c>
       <c r="H104" t="n">
-        <v>111.33127773</v>
+        <v>117.56945924</v>
       </c>
       <c r="I104" t="n">
-        <v>115.5783601</v>
+        <v>107.14164822</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>121.13358157</v>
+        <v>117.12926467</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>108.68571037</v>
+        <v>107.84729604</v>
       </c>
       <c r="E105" t="n">
-        <v>136.22437888</v>
+        <v>105.51186883</v>
       </c>
       <c r="F105" t="n">
-        <v>104.08392777</v>
+        <v>102.68824147</v>
       </c>
       <c r="G105" t="n">
-        <v>120.50027175</v>
+        <v>109.24988096</v>
       </c>
       <c r="H105" t="n">
-        <v>110.80265214</v>
+        <v>112.69480739</v>
       </c>
       <c r="I105" t="n">
-        <v>111.67491612</v>
+        <v>100.21139855</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>120.78724535</v>
+        <v>115.18191841</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>108.70970237</v>
+        <v>107.34356025</v>
       </c>
       <c r="E106" t="n">
-        <v>124.92992914</v>
+        <v>106.41539111</v>
       </c>
       <c r="F106" t="n">
-        <v>103.12398362</v>
+        <v>103.893457</v>
       </c>
       <c r="G106" t="n">
-        <v>117.21162411</v>
+        <v>108.67581518</v>
       </c>
       <c r="H106" t="n">
-        <v>114.45976175</v>
+        <v>108.54794231</v>
       </c>
       <c r="I106" t="n">
-        <v>109.59418665</v>
+        <v>99.67413791</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>119.39784624</v>
+        <v>113.19700062</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>108.74113555</v>
+        <v>106.51300165</v>
       </c>
       <c r="E107" t="n">
-        <v>113.20601917</v>
+        <v>104.46757015</v>
       </c>
       <c r="F107" t="n">
-        <v>105.74868763</v>
+        <v>102.92177213</v>
       </c>
       <c r="G107" t="n">
-        <v>113.55065703</v>
+        <v>107.33546833</v>
       </c>
       <c r="H107" t="n">
-        <v>117.56945924</v>
+        <v>106.80576355</v>
       </c>
       <c r="I107" t="n">
-        <v>107.14164822</v>
+        <v>99.01474082</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>117.12926467</v>
+        <v>111.15832031</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>107.84729604</v>
+        <v>105.09857939</v>
       </c>
       <c r="E108" t="n">
-        <v>105.51186883</v>
+        <v>99.58973272</v>
       </c>
       <c r="F108" t="n">
-        <v>102.68824147</v>
+        <v>102.02867175</v>
       </c>
       <c r="G108" t="n">
-        <v>109.24988096</v>
+        <v>104.39449054</v>
       </c>
       <c r="H108" t="n">
-        <v>112.69480739</v>
+        <v>103.18136871</v>
       </c>
       <c r="I108" t="n">
-        <v>100.21139855</v>
+        <v>98.25865580999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>115.18191841</v>
+        <v>109.95302643</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.34356025</v>
+        <v>103.63685034</v>
       </c>
       <c r="E109" t="n">
-        <v>106.41539111</v>
+        <v>97.23848692999999</v>
       </c>
       <c r="F109" t="n">
-        <v>103.893457</v>
+        <v>101.57233345</v>
       </c>
       <c r="G109" t="n">
-        <v>108.67581518</v>
+        <v>102.80216091</v>
       </c>
       <c r="H109" t="n">
-        <v>108.54794231</v>
+        <v>100.11473832</v>
       </c>
       <c r="I109" t="n">
-        <v>99.67413791</v>
+        <v>106.11046983</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100.55290722</v>
+        <v>111.16817892</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>106.2930682</v>
+        <v>103.46666909</v>
       </c>
       <c r="E110" t="n">
-        <v>96.69377741</v>
+        <v>96.04423844</v>
       </c>
       <c r="F110" t="n">
-        <v>102.20836918</v>
+        <v>101.18534759</v>
       </c>
       <c r="G110" t="n">
-        <v>101.68016452</v>
+        <v>102.91653672</v>
       </c>
       <c r="H110" t="n">
-        <v>113.40982288</v>
+        <v>100.26570676</v>
       </c>
       <c r="I110" t="n">
-        <v>116.08434121</v>
+        <v>120.29125998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>103.13460761</v>
+        <v>103.07371243</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>107.068362</v>
+        <v>104.12101039</v>
       </c>
       <c r="E111" t="n">
-        <v>99.3494484</v>
+        <v>89.82614814</v>
       </c>
       <c r="F111" t="n">
-        <v>103.51440184</v>
+        <v>97.89894274</v>
       </c>
       <c r="G111" t="n">
-        <v>103.6612269</v>
+        <v>97.31058327</v>
       </c>
       <c r="H111" t="n">
-        <v>110.70028273</v>
+        <v>94.70524109</v>
       </c>
       <c r="I111" t="n">
-        <v>125.58682756</v>
+        <v>91.06594717</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>105.29030446</v>
+        <v>106.47942853</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>108.99032913</v>
+        <v>105.57215434</v>
       </c>
       <c r="E112" t="n">
-        <v>98.75927574000001</v>
+        <v>88.39024066</v>
       </c>
       <c r="F112" t="n">
-        <v>105.71967754</v>
+        <v>101.83698682</v>
       </c>
       <c r="G112" t="n">
-        <v>105.61898357</v>
+        <v>98.19707008</v>
       </c>
       <c r="H112" t="n">
-        <v>112.74787665</v>
+        <v>96.682874</v>
       </c>
       <c r="I112" t="n">
-        <v>136.82307225</v>
+        <v>107.6486848</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.16817892</v>
+        <v>102.98521929</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>103.46666909</v>
+        <v>105.4837764</v>
       </c>
       <c r="E113" t="n">
-        <v>96.04423844</v>
+        <v>85.25798487</v>
       </c>
       <c r="F113" t="n">
-        <v>101.18534759</v>
+        <v>104.97553391</v>
       </c>
       <c r="G113" t="n">
-        <v>102.91653672</v>
+        <v>97.71982474000001</v>
       </c>
       <c r="H113" t="n">
-        <v>100.26570676</v>
+        <v>100.92535407</v>
       </c>
       <c r="I113" t="n">
-        <v>120.29125998</v>
+        <v>113.92127936</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>103.07371243</v>
+        <v>99.75969919000001</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>104.12101039</v>
+        <v>104.71813662</v>
       </c>
       <c r="E114" t="n">
-        <v>89.82614814</v>
+        <v>83.23256218</v>
       </c>
       <c r="F114" t="n">
-        <v>97.89894274</v>
+        <v>103.59017167</v>
       </c>
       <c r="G114" t="n">
-        <v>97.31058327</v>
+        <v>98.13741605</v>
       </c>
       <c r="H114" t="n">
-        <v>94.70524109</v>
+        <v>114.25596691</v>
       </c>
       <c r="I114" t="n">
-        <v>91.06594717</v>
+        <v>124.6974166</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.47942853</v>
+        <v>98.12624234</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>105.57215434</v>
+        <v>104.73057184</v>
       </c>
       <c r="E115" t="n">
-        <v>88.39024066</v>
+        <v>83.70730417</v>
       </c>
       <c r="F115" t="n">
-        <v>101.83698682</v>
+        <v>100.72630311</v>
       </c>
       <c r="G115" t="n">
-        <v>98.19707008</v>
+        <v>97.6932063</v>
       </c>
       <c r="H115" t="n">
-        <v>96.682874</v>
+        <v>119.58014791</v>
       </c>
       <c r="I115" t="n">
-        <v>107.6486848</v>
+        <v>118.4150241</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>102.98521929</v>
+        <v>97.02913984</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>105.4837764</v>
+        <v>104.67392534</v>
       </c>
       <c r="E116" t="n">
-        <v>85.25798487</v>
+        <v>86.42081328</v>
       </c>
       <c r="F116" t="n">
-        <v>104.97553391</v>
+        <v>99.39804106</v>
       </c>
       <c r="G116" t="n">
-        <v>97.71982474000001</v>
+        <v>97.87084332000001</v>
       </c>
       <c r="H116" t="n">
-        <v>100.92535407</v>
+        <v>121.57203702</v>
       </c>
       <c r="I116" t="n">
-        <v>113.92127936</v>
+        <v>113.07858948</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.75969919000001</v>
+        <v>97.2294155</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>104.71813662</v>
+        <v>104.96166809</v>
       </c>
       <c r="E117" t="n">
-        <v>83.23256218</v>
+        <v>90.53894615</v>
       </c>
       <c r="F117" t="n">
-        <v>103.59017167</v>
+        <v>101.6310374</v>
       </c>
       <c r="G117" t="n">
-        <v>98.13741605</v>
+        <v>99.58906068</v>
       </c>
       <c r="H117" t="n">
-        <v>114.25596691</v>
+        <v>117.74611903</v>
       </c>
       <c r="I117" t="n">
-        <v>124.6974166</v>
+        <v>121.06418169</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>98.12624234</v>
+        <v>98.08053242</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>104.73057184</v>
+        <v>105.52378581</v>
       </c>
       <c r="E118" t="n">
-        <v>83.70730417</v>
+        <v>93.32661902</v>
       </c>
       <c r="F118" t="n">
-        <v>100.72630311</v>
+        <v>101.42924601</v>
       </c>
       <c r="G118" t="n">
-        <v>97.6932063</v>
+        <v>100.95834653</v>
       </c>
       <c r="H118" t="n">
-        <v>119.58014791</v>
+        <v>116.54275586</v>
       </c>
       <c r="I118" t="n">
-        <v>118.4150241</v>
+        <v>125.47281193</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.02913984</v>
+        <v>100.55290722</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>104.67392534</v>
+        <v>106.2930682</v>
       </c>
       <c r="E119" t="n">
-        <v>86.42081328</v>
+        <v>96.69377741</v>
       </c>
       <c r="F119" t="n">
-        <v>99.39804106</v>
+        <v>102.20836918</v>
       </c>
       <c r="G119" t="n">
-        <v>97.87084332000001</v>
+        <v>101.68016452</v>
       </c>
       <c r="H119" t="n">
-        <v>121.57203702</v>
+        <v>113.40982288</v>
       </c>
       <c r="I119" t="n">
-        <v>113.07858948</v>
+        <v>116.08434121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97.2294155</v>
+        <v>103.13460761</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>104.96166809</v>
+        <v>107.068362</v>
       </c>
       <c r="E120" t="n">
-        <v>90.53894615</v>
+        <v>99.3494484</v>
       </c>
       <c r="F120" t="n">
-        <v>101.6310374</v>
+        <v>103.51440184</v>
       </c>
       <c r="G120" t="n">
-        <v>99.58906068</v>
+        <v>103.6612269</v>
       </c>
       <c r="H120" t="n">
-        <v>117.74611903</v>
+        <v>110.70028273</v>
       </c>
       <c r="I120" t="n">
-        <v>121.06418169</v>
+        <v>125.58682756</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>98.08053242</v>
+        <v>105.29030446</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>105.52378581</v>
+        <v>108.99032913</v>
       </c>
       <c r="E121" t="n">
-        <v>93.32661902</v>
+        <v>98.75927574000001</v>
       </c>
       <c r="F121" t="n">
-        <v>101.42924601</v>
+        <v>105.71967754</v>
       </c>
       <c r="G121" t="n">
-        <v>100.95834653</v>
+        <v>105.61898357</v>
       </c>
       <c r="H121" t="n">
-        <v>116.54275586</v>
+        <v>112.74787665</v>
       </c>
       <c r="I121" t="n">
-        <v>125.47281193</v>
+        <v>136.82307225</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>109.59352234</v>
+        <v>103.34887342</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>112.9571756</v>
+        <v>110.13911328</v>
       </c>
       <c r="E122" t="n">
-        <v>107.93999605</v>
+        <v>96.19965426</v>
       </c>
       <c r="F122" t="n">
-        <v>110.11480005</v>
+        <v>106.37092976</v>
       </c>
       <c r="G122" t="n">
-        <v>110.24824993</v>
+        <v>103.839008</v>
       </c>
       <c r="H122" t="n">
-        <v>118.9296319</v>
+        <v>111.30467016</v>
       </c>
       <c r="I122" t="n">
-        <v>133.71098239</v>
+        <v>118.30320611</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>110.10088855</v>
+        <v>108.63665868</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>116.00041492</v>
+        <v>109.76004119</v>
       </c>
       <c r="E123" t="n">
-        <v>111.21088998</v>
+        <v>98.64983793</v>
       </c>
       <c r="F123" t="n">
-        <v>116.64193153</v>
+        <v>109.12863812</v>
       </c>
       <c r="G123" t="n">
-        <v>112.10296295</v>
+        <v>106.28155714</v>
       </c>
       <c r="H123" t="n">
-        <v>126.82145027</v>
+        <v>119.29169676</v>
       </c>
       <c r="I123" t="n">
-        <v>123.11936869</v>
+        <v>128.43890565</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>109.54867676</v>
+        <v>105.90196729</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>116.37560211</v>
+        <v>109.48345688</v>
       </c>
       <c r="E124" t="n">
-        <v>110.87525851</v>
+        <v>98.02359287</v>
       </c>
       <c r="F124" t="n">
-        <v>117.99259989</v>
+        <v>106.16859237</v>
       </c>
       <c r="G124" t="n">
-        <v>110.09706765</v>
+        <v>105.38985638</v>
       </c>
       <c r="H124" t="n">
-        <v>130.50972498</v>
+        <v>121.47108862</v>
       </c>
       <c r="I124" t="n">
-        <v>98.58223158</v>
+        <v>121.4066418</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103.34887342</v>
+        <v>104.462009</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>110.13911328</v>
+        <v>110.8746792</v>
       </c>
       <c r="E125" t="n">
-        <v>96.19965426</v>
+        <v>98.54896932</v>
       </c>
       <c r="F125" t="n">
-        <v>106.37092976</v>
+        <v>101.91942761</v>
       </c>
       <c r="G125" t="n">
-        <v>103.839008</v>
+        <v>105.99806369</v>
       </c>
       <c r="H125" t="n">
-        <v>111.30467016</v>
+        <v>118.78243136</v>
       </c>
       <c r="I125" t="n">
-        <v>118.30320611</v>
+        <v>127.74852557</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>108.63665868</v>
+        <v>104.15198415</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.76004119</v>
+        <v>112.03329068</v>
       </c>
       <c r="E126" t="n">
-        <v>98.64983793</v>
+        <v>101.67644637</v>
       </c>
       <c r="F126" t="n">
-        <v>109.12863812</v>
+        <v>100.31296834</v>
       </c>
       <c r="G126" t="n">
-        <v>106.28155714</v>
+        <v>106.30779525</v>
       </c>
       <c r="H126" t="n">
-        <v>119.29169676</v>
+        <v>112.37565036</v>
       </c>
       <c r="I126" t="n">
-        <v>128.43890565</v>
+        <v>124.3467748</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>105.90196729</v>
+        <v>104.86692037</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.48345688</v>
+        <v>112.15420895</v>
       </c>
       <c r="E127" t="n">
-        <v>98.02359287</v>
+        <v>102.20675581</v>
       </c>
       <c r="F127" t="n">
-        <v>106.16859237</v>
+        <v>102.27624396</v>
       </c>
       <c r="G127" t="n">
-        <v>105.38985638</v>
+        <v>106.07042263</v>
       </c>
       <c r="H127" t="n">
-        <v>121.47108862</v>
+        <v>111.56751965</v>
       </c>
       <c r="I127" t="n">
-        <v>121.4066418</v>
+        <v>118.30904321</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>104.462009</v>
+        <v>106.252353</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>110.8746792</v>
+        <v>112.11633076</v>
       </c>
       <c r="E128" t="n">
-        <v>98.54896932</v>
+        <v>104.53613784</v>
       </c>
       <c r="F128" t="n">
-        <v>101.91942761</v>
+        <v>107.46880219</v>
       </c>
       <c r="G128" t="n">
-        <v>105.99806369</v>
+        <v>107.17598112</v>
       </c>
       <c r="H128" t="n">
-        <v>118.78243136</v>
+        <v>108.49395687</v>
       </c>
       <c r="I128" t="n">
-        <v>127.74852557</v>
+        <v>123.61336525</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>104.15198415</v>
+        <v>107.46055397</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>112.03329068</v>
+        <v>112.38521562</v>
       </c>
       <c r="E129" t="n">
-        <v>101.67644637</v>
+        <v>105.90511627</v>
       </c>
       <c r="F129" t="n">
-        <v>100.31296834</v>
+        <v>109.20515598</v>
       </c>
       <c r="G129" t="n">
-        <v>106.30779525</v>
+        <v>107.9403225</v>
       </c>
       <c r="H129" t="n">
-        <v>112.37565036</v>
+        <v>114.59833558</v>
       </c>
       <c r="I129" t="n">
-        <v>124.3467748</v>
+        <v>120.7356188</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>104.86692037</v>
+        <v>109.09657982</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>112.15420895</v>
+        <v>112.48331279</v>
       </c>
       <c r="E130" t="n">
-        <v>102.20675581</v>
+        <v>106.25627485</v>
       </c>
       <c r="F130" t="n">
-        <v>102.27624396</v>
+        <v>109.72707884</v>
       </c>
       <c r="G130" t="n">
-        <v>106.07042263</v>
+        <v>108.36735774</v>
       </c>
       <c r="H130" t="n">
-        <v>111.56751965</v>
+        <v>117.74699607</v>
       </c>
       <c r="I130" t="n">
-        <v>118.30904321</v>
+        <v>120.1710885</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>106.252353</v>
+        <v>109.59352234</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>112.11633076</v>
+        <v>112.9571756</v>
       </c>
       <c r="E131" t="n">
-        <v>104.53613784</v>
+        <v>107.93999605</v>
       </c>
       <c r="F131" t="n">
-        <v>107.46880219</v>
+        <v>110.11480005</v>
       </c>
       <c r="G131" t="n">
-        <v>107.17598112</v>
+        <v>110.24824993</v>
       </c>
       <c r="H131" t="n">
-        <v>108.49395687</v>
+        <v>118.9296319</v>
       </c>
       <c r="I131" t="n">
-        <v>123.61336525</v>
+        <v>133.71098239</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>107.46055397</v>
+        <v>110.10088855</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>112.38521562</v>
+        <v>116.00041492</v>
       </c>
       <c r="E132" t="n">
-        <v>105.90511627</v>
+        <v>111.21088998</v>
       </c>
       <c r="F132" t="n">
-        <v>109.20515598</v>
+        <v>116.64193153</v>
       </c>
       <c r="G132" t="n">
-        <v>107.9403225</v>
+        <v>112.10296295</v>
       </c>
       <c r="H132" t="n">
-        <v>114.59833558</v>
+        <v>126.82145027</v>
       </c>
       <c r="I132" t="n">
-        <v>120.7356188</v>
+        <v>123.11936869</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>109.09657982</v>
+        <v>109.54867676</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>112.48331279</v>
+        <v>116.37560211</v>
       </c>
       <c r="E133" t="n">
-        <v>106.25627485</v>
+        <v>110.87525851</v>
       </c>
       <c r="F133" t="n">
-        <v>109.72707884</v>
+        <v>117.99259989</v>
       </c>
       <c r="G133" t="n">
-        <v>108.36735774</v>
+        <v>110.09706765</v>
       </c>
       <c r="H133" t="n">
-        <v>117.74699607</v>
+        <v>130.50972498</v>
       </c>
       <c r="I133" t="n">
-        <v>120.1710885</v>
+        <v>98.58223158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112.22443031</v>
+        <v>110.04125443</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>111.18953524</v>
+        <v>115.62226045</v>
       </c>
       <c r="E134" t="n">
-        <v>125.88728953</v>
+        <v>111.93825095</v>
       </c>
       <c r="F134" t="n">
-        <v>111.79445299</v>
+        <v>117.7400347</v>
       </c>
       <c r="G134" t="n">
-        <v>112.46026788</v>
+        <v>110.7052642</v>
       </c>
       <c r="H134" t="n">
-        <v>111.37159553</v>
+        <v>132.73248533</v>
       </c>
       <c r="I134" t="n">
-        <v>95.24733254</v>
+        <v>104.68677784</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>110.65202546</v>
+        <v>108.34415396</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>108.0281465</v>
+        <v>115.59015838</v>
       </c>
       <c r="E135" t="n">
-        <v>118.50077311</v>
+        <v>114.73800102</v>
       </c>
       <c r="F135" t="n">
-        <v>103.66461588</v>
+        <v>117.37867202</v>
       </c>
       <c r="G135" t="n">
-        <v>108.67505509</v>
+        <v>111.82975399</v>
       </c>
       <c r="H135" t="n">
-        <v>111.33101453</v>
+        <v>132.81058437</v>
       </c>
       <c r="I135" t="n">
-        <v>89.8702351</v>
+        <v>108.34680042</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>109.29442095</v>
+        <v>108.2</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>106.08154514</v>
+        <v>115.5</v>
       </c>
       <c r="E136" t="n">
-        <v>115.32588299</v>
+        <v>119</v>
       </c>
       <c r="F136" t="n">
-        <v>100.8615403</v>
+        <v>112.6</v>
       </c>
       <c r="G136" t="n">
-        <v>108.41538439</v>
+        <v>112.4</v>
       </c>
       <c r="H136" t="n">
-        <v>105.6524337</v>
+        <v>131</v>
       </c>
       <c r="I136" t="n">
-        <v>109.16503255</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>110.04125443</v>
+        <v>109.2</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>115.62226045</v>
+        <v>114.4</v>
       </c>
       <c r="E137" t="n">
-        <v>111.93825095</v>
+        <v>123.5</v>
       </c>
       <c r="F137" t="n">
-        <v>117.7400347</v>
+        <v>112.4</v>
       </c>
       <c r="G137" t="n">
-        <v>110.7052642</v>
+        <v>112.2</v>
       </c>
       <c r="H137" t="n">
-        <v>132.73248533</v>
+        <v>130.5</v>
       </c>
       <c r="I137" t="n">
-        <v>104.68677784</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>108.34415396</v>
+        <v>111.2</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>115.59015838</v>
+        <v>112.9</v>
       </c>
       <c r="E138" t="n">
-        <v>114.73800102</v>
+        <v>126.6</v>
       </c>
       <c r="F138" t="n">
-        <v>117.37867202</v>
+        <v>118.1</v>
       </c>
       <c r="G138" t="n">
-        <v>111.82975399</v>
+        <v>112.6</v>
       </c>
       <c r="H138" t="n">
-        <v>132.81058437</v>
+        <v>121.3</v>
       </c>
       <c r="I138" t="n">
-        <v>108.34680042</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>108.2</v>
+        <v>112.9</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>115.5</v>
+        <v>112.5</v>
       </c>
       <c r="E139" t="n">
-        <v>119</v>
+        <v>135.7</v>
       </c>
       <c r="F139" t="n">
-        <v>112.6</v>
+        <v>120.8</v>
       </c>
       <c r="G139" t="n">
-        <v>112.4</v>
+        <v>115.7</v>
       </c>
       <c r="H139" t="n">
-        <v>131</v>
+        <v>110.9</v>
       </c>
       <c r="I139" t="n">
-        <v>106.1</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>109.2</v>
+        <v>114.71942397</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>114.4</v>
+        <v>112.49101885</v>
       </c>
       <c r="E140" t="n">
-        <v>123.5</v>
+        <v>135.90737549</v>
       </c>
       <c r="F140" t="n">
-        <v>112.4</v>
+        <v>118.33180956</v>
       </c>
       <c r="G140" t="n">
-        <v>112.2</v>
+        <v>115.81952361</v>
       </c>
       <c r="H140" t="n">
-        <v>130.5</v>
+        <v>104.56074618</v>
       </c>
       <c r="I140" t="n">
-        <v>93.59999999999999</v>
+        <v>108.07777552</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>111.2</v>
+        <v>114.40261721</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>112.9</v>
+        <v>112.05596975</v>
       </c>
       <c r="E141" t="n">
-        <v>126.6</v>
+        <v>130.57035303</v>
       </c>
       <c r="F141" t="n">
-        <v>118.1</v>
+        <v>115.18253987</v>
       </c>
       <c r="G141" t="n">
-        <v>112.6</v>
+        <v>114.13597043</v>
       </c>
       <c r="H141" t="n">
-        <v>121.3</v>
+        <v>103.41128735</v>
       </c>
       <c r="I141" t="n">
-        <v>94</v>
+        <v>100.54407753</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>112.9</v>
+        <v>113.80032488</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>112.5</v>
+        <v>111.67373786</v>
       </c>
       <c r="E142" t="n">
-        <v>135.7</v>
+        <v>129.09870682</v>
       </c>
       <c r="F142" t="n">
-        <v>120.8</v>
+        <v>113.51708485</v>
       </c>
       <c r="G142" t="n">
-        <v>115.7</v>
+        <v>114.16126995</v>
       </c>
       <c r="H142" t="n">
-        <v>110.9</v>
+        <v>106.09573633</v>
       </c>
       <c r="I142" t="n">
-        <v>107.8</v>
+        <v>103.72216559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>114.71942397</v>
+        <v>112.22443031</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>112.49101885</v>
+        <v>111.18953524</v>
       </c>
       <c r="E143" t="n">
-        <v>135.90737549</v>
+        <v>125.88728953</v>
       </c>
       <c r="F143" t="n">
-        <v>118.33180956</v>
+        <v>111.79445299</v>
       </c>
       <c r="G143" t="n">
-        <v>115.81952361</v>
+        <v>112.46026788</v>
       </c>
       <c r="H143" t="n">
-        <v>104.56074618</v>
+        <v>111.37159553</v>
       </c>
       <c r="I143" t="n">
-        <v>108.07777552</v>
+        <v>95.24733254</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>114.40261721</v>
+        <v>110.65202546</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>112.05596975</v>
+        <v>108.0281465</v>
       </c>
       <c r="E144" t="n">
-        <v>130.57035303</v>
+        <v>118.50077311</v>
       </c>
       <c r="F144" t="n">
-        <v>115.18253987</v>
+        <v>103.66461588</v>
       </c>
       <c r="G144" t="n">
-        <v>114.13597043</v>
+        <v>108.67505509</v>
       </c>
       <c r="H144" t="n">
-        <v>103.41128735</v>
+        <v>111.33101453</v>
       </c>
       <c r="I144" t="n">
-        <v>100.54407753</v>
+        <v>89.8702351</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>113.80032488</v>
+        <v>109.29442095</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>111.67373786</v>
+        <v>106.08154514</v>
       </c>
       <c r="E145" t="n">
-        <v>129.09870682</v>
+        <v>115.32588299</v>
       </c>
       <c r="F145" t="n">
-        <v>113.51708485</v>
+        <v>100.8615403</v>
       </c>
       <c r="G145" t="n">
-        <v>114.16126995</v>
+        <v>108.41538439</v>
       </c>
       <c r="H145" t="n">
-        <v>106.09573633</v>
+        <v>105.6524337</v>
       </c>
       <c r="I145" t="n">
-        <v>103.72216559</v>
+        <v>109.16503255</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>106.17273168</v>
+        <v>112.41115566</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>103.57434228</v>
+        <v>105.58950893</v>
       </c>
       <c r="E146" t="n">
-        <v>93.58407999000001</v>
+        <v>117.41857427</v>
       </c>
       <c r="F146" t="n">
-        <v>99.75622242999999</v>
+        <v>97.12552898</v>
       </c>
       <c r="G146" t="n">
-        <v>100.9975659</v>
+        <v>109.88053704</v>
       </c>
       <c r="H146" t="n">
-        <v>103.23635404</v>
+        <v>103.03633435</v>
       </c>
       <c r="I146" t="n">
-        <v>101.79461624</v>
+        <v>122.27593038</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>106.47351084</v>
+        <v>107.34362079</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>103.82610613</v>
+        <v>104.91711866</v>
       </c>
       <c r="E147" t="n">
-        <v>96.80475616</v>
+        <v>111.33632178</v>
       </c>
       <c r="F147" t="n">
-        <v>103.64840425</v>
+        <v>88.89115124999999</v>
       </c>
       <c r="G147" t="n">
-        <v>102.43361268</v>
+        <v>105.5557052</v>
       </c>
       <c r="H147" t="n">
-        <v>96.4966778</v>
+        <v>94.00275618000001</v>
       </c>
       <c r="I147" t="n">
-        <v>111.26654546</v>
+        <v>106.00297712</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>107.98929852</v>
+        <v>111.43599355</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>104.18884441</v>
+        <v>103.57627563</v>
       </c>
       <c r="E148" t="n">
-        <v>100.63192375</v>
+        <v>110.0126577</v>
       </c>
       <c r="F148" t="n">
-        <v>108.66080723</v>
+        <v>93.22048209</v>
       </c>
       <c r="G148" t="n">
-        <v>104.2628021</v>
+        <v>106.62511816</v>
       </c>
       <c r="H148" t="n">
-        <v>95.8057932</v>
+        <v>93.9862076</v>
       </c>
       <c r="I148" t="n">
-        <v>116.59234367</v>
+        <v>119.61179508</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>112.41115566</v>
+        <v>112.83542204</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>105.58950893</v>
+        <v>103.10551619</v>
       </c>
       <c r="E149" t="n">
-        <v>117.41857427</v>
+        <v>106.52419538</v>
       </c>
       <c r="F149" t="n">
-        <v>97.12552898</v>
+        <v>93.77637817</v>
       </c>
       <c r="G149" t="n">
-        <v>109.88053704</v>
+        <v>106.10693275</v>
       </c>
       <c r="H149" t="n">
-        <v>103.03633435</v>
+        <v>90.47817618000001</v>
       </c>
       <c r="I149" t="n">
-        <v>122.27593038</v>
+        <v>127.74044158</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>107.34362079</v>
+        <v>112.3898762</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>104.91711866</v>
+        <v>102.86872204</v>
       </c>
       <c r="E150" t="n">
-        <v>111.33632178</v>
+        <v>102.8746446</v>
       </c>
       <c r="F150" t="n">
-        <v>88.89115124999999</v>
+        <v>89.60374742</v>
       </c>
       <c r="G150" t="n">
-        <v>105.5557052</v>
+        <v>105.29088159</v>
       </c>
       <c r="H150" t="n">
-        <v>94.00275618000001</v>
+        <v>93.14556256</v>
       </c>
       <c r="I150" t="n">
-        <v>106.00297712</v>
+        <v>131.45870523</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>111.43599355</v>
+        <v>110.73616156</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>103.57627563</v>
+        <v>102.76870621</v>
       </c>
       <c r="E151" t="n">
-        <v>110.0126577</v>
+        <v>95.60511959</v>
       </c>
       <c r="F151" t="n">
-        <v>93.22048209</v>
+        <v>96.13821162000001</v>
       </c>
       <c r="G151" t="n">
-        <v>106.62511816</v>
+        <v>102.64695335</v>
       </c>
       <c r="H151" t="n">
-        <v>93.9862076</v>
+        <v>100.54973267</v>
       </c>
       <c r="I151" t="n">
-        <v>119.61179508</v>
+        <v>113.86706998</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>112.83542204</v>
+        <v>108.23773746</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>103.10551619</v>
+        <v>102.63222231</v>
       </c>
       <c r="E152" t="n">
-        <v>106.52419538</v>
+        <v>91.15798768000001</v>
       </c>
       <c r="F152" t="n">
-        <v>93.77637817</v>
+        <v>93.43296848</v>
       </c>
       <c r="G152" t="n">
-        <v>106.10693275</v>
+        <v>101.12703043</v>
       </c>
       <c r="H152" t="n">
-        <v>90.47817618000001</v>
+        <v>107.46641268</v>
       </c>
       <c r="I152" t="n">
-        <v>127.74044158</v>
+        <v>109.84595435</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>112.3898762</v>
+        <v>106.61106067</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>102.86872204</v>
+        <v>102.91031372</v>
       </c>
       <c r="E153" t="n">
-        <v>102.8746446</v>
+        <v>91.13881094</v>
       </c>
       <c r="F153" t="n">
-        <v>89.60374742</v>
+        <v>96.78529138</v>
       </c>
       <c r="G153" t="n">
-        <v>105.29088159</v>
+        <v>102.13242328</v>
       </c>
       <c r="H153" t="n">
-        <v>93.14556256</v>
+        <v>109.58600773</v>
       </c>
       <c r="I153" t="n">
-        <v>131.45870523</v>
+        <v>125.67416427</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>110.73616156</v>
+        <v>105.60054843</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>102.76870621</v>
+        <v>103.56016823</v>
       </c>
       <c r="E154" t="n">
-        <v>95.60511959</v>
+        <v>91.87705529999999</v>
       </c>
       <c r="F154" t="n">
-        <v>96.13821162000001</v>
+        <v>99.77930207</v>
       </c>
       <c r="G154" t="n">
-        <v>102.64695335</v>
+        <v>101.41626005</v>
       </c>
       <c r="H154" t="n">
-        <v>100.54973267</v>
+        <v>106.77894959</v>
       </c>
       <c r="I154" t="n">
-        <v>113.86706998</v>
+        <v>112.91765406</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>108.23773746</v>
+        <v>106.17273168</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>102.63222231</v>
+        <v>103.57434228</v>
       </c>
       <c r="E155" t="n">
-        <v>91.15798768000001</v>
+        <v>93.58407999000001</v>
       </c>
       <c r="F155" t="n">
-        <v>93.43296848</v>
+        <v>99.75622242999999</v>
       </c>
       <c r="G155" t="n">
-        <v>101.12703043</v>
+        <v>100.9975659</v>
       </c>
       <c r="H155" t="n">
-        <v>107.46641268</v>
+        <v>103.23635404</v>
       </c>
       <c r="I155" t="n">
-        <v>109.84595435</v>
+        <v>101.79461624</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>106.61106067</v>
+        <v>106.47351084</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>102.91031372</v>
+        <v>103.82610613</v>
       </c>
       <c r="E156" t="n">
-        <v>91.13881094</v>
+        <v>96.80475616</v>
       </c>
       <c r="F156" t="n">
-        <v>96.78529138</v>
+        <v>103.64840425</v>
       </c>
       <c r="G156" t="n">
-        <v>102.13242328</v>
+        <v>102.43361268</v>
       </c>
       <c r="H156" t="n">
-        <v>109.58600773</v>
+        <v>96.4966778</v>
       </c>
       <c r="I156" t="n">
-        <v>125.67416427</v>
+        <v>111.26654546</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>105.60054843</v>
+        <v>107.98929852</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>103.56016823</v>
+        <v>104.18884441</v>
       </c>
       <c r="E157" t="n">
-        <v>91.87705529999999</v>
+        <v>100.63192375</v>
       </c>
       <c r="F157" t="n">
-        <v>99.77930207</v>
+        <v>108.66080723</v>
       </c>
       <c r="G157" t="n">
-        <v>101.41626005</v>
+        <v>104.2628021</v>
       </c>
       <c r="H157" t="n">
-        <v>106.77894959</v>
+        <v>95.8057932</v>
       </c>
       <c r="I157" t="n">
-        <v>112.91765406</v>
+        <v>116.59234367</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>105.27614695</v>
+        <v>105.00231846</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>104.18699838</v>
+        <v>104.91913388</v>
       </c>
       <c r="E158" t="n">
-        <v>106.13600733</v>
+        <v>101.40294314</v>
       </c>
       <c r="F158" t="n">
-        <v>99.17429256</v>
+        <v>111.54409502</v>
       </c>
       <c r="G158" t="n">
-        <v>106.67956924</v>
+        <v>103.35431989</v>
       </c>
       <c r="H158" t="n">
-        <v>111.67025788</v>
+        <v>93.84136837</v>
       </c>
       <c r="I158" t="n">
-        <v>133.45259072</v>
+        <v>104.43128556</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>105.59099851</v>
+        <v>110.10327607</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>104.23302493</v>
+        <v>105.21306711</v>
       </c>
       <c r="E159" t="n">
-        <v>105.79077513</v>
+        <v>104.90089726</v>
       </c>
       <c r="F159" t="n">
-        <v>98.1766657</v>
+        <v>120.44577606</v>
       </c>
       <c r="G159" t="n">
-        <v>105.96637664</v>
+        <v>106.22292537</v>
       </c>
       <c r="H159" t="n">
-        <v>112.19153423</v>
+        <v>103.50702815</v>
       </c>
       <c r="I159" t="n">
-        <v>124.06255185</v>
+        <v>111.33047819</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>104.89823357</v>
+        <v>103.89751895</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>104.0104317</v>
+        <v>105.38438475</v>
       </c>
       <c r="E160" t="n">
-        <v>103.67611552</v>
+        <v>102.24297566</v>
       </c>
       <c r="F160" t="n">
-        <v>95.88066734</v>
+        <v>114.2813136</v>
       </c>
       <c r="G160" t="n">
-        <v>104.02372796</v>
+        <v>103.15955422</v>
       </c>
       <c r="H160" t="n">
-        <v>116.0138526</v>
+        <v>105.39948088</v>
       </c>
       <c r="I160" t="n">
-        <v>104.26373025</v>
+        <v>91.45540739</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>105.00231846</v>
+        <v>103.5965629</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.91913388</v>
+        <v>105.45974283</v>
       </c>
       <c r="E161" t="n">
-        <v>101.40294314</v>
+        <v>100.29894715</v>
       </c>
       <c r="F161" t="n">
-        <v>111.54409502</v>
+        <v>112.06181117</v>
       </c>
       <c r="G161" t="n">
-        <v>103.35431989</v>
+        <v>104.17440606</v>
       </c>
       <c r="H161" t="n">
-        <v>93.84136837</v>
+        <v>106.08074727</v>
       </c>
       <c r="I161" t="n">
-        <v>104.43128556</v>
+        <v>106.85861871</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>110.10327607</v>
+        <v>102.84510115</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>105.21306711</v>
+        <v>105.39076803</v>
       </c>
       <c r="E162" t="n">
-        <v>104.90089726</v>
+        <v>100.3135815</v>
       </c>
       <c r="F162" t="n">
-        <v>120.44577606</v>
+        <v>111.49487236</v>
       </c>
       <c r="G162" t="n">
-        <v>106.22292537</v>
+        <v>103.55745808</v>
       </c>
       <c r="H162" t="n">
-        <v>103.50702815</v>
+        <v>108.28268322</v>
       </c>
       <c r="I162" t="n">
-        <v>111.33047819</v>
+        <v>100.76407207</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>103.89751895</v>
+        <v>102.41207811</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>105.38438475</v>
+        <v>105.183093</v>
       </c>
       <c r="E163" t="n">
-        <v>102.24297566</v>
+        <v>104.22962292</v>
       </c>
       <c r="F163" t="n">
-        <v>114.2813136</v>
+        <v>100.48555416</v>
       </c>
       <c r="G163" t="n">
-        <v>103.15955422</v>
+        <v>105.09371327</v>
       </c>
       <c r="H163" t="n">
-        <v>105.39948088</v>
+        <v>112.96585671</v>
       </c>
       <c r="I163" t="n">
-        <v>91.45540739</v>
+        <v>111.71999191</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>103.5965629</v>
+        <v>102.3765997</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>105.45974283</v>
+        <v>105.14310463</v>
       </c>
       <c r="E164" t="n">
-        <v>100.29894715</v>
+        <v>105.46749492</v>
       </c>
       <c r="F164" t="n">
-        <v>112.06181117</v>
+        <v>100.78426189</v>
       </c>
       <c r="G164" t="n">
-        <v>104.17440606</v>
+        <v>105.32337379</v>
       </c>
       <c r="H164" t="n">
-        <v>106.08074727</v>
+        <v>110.65658367</v>
       </c>
       <c r="I164" t="n">
-        <v>106.85861871</v>
+        <v>113.8500627</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>102.84510115</v>
+        <v>103.97002367</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>105.39076803</v>
+        <v>104.90425846</v>
       </c>
       <c r="E165" t="n">
-        <v>100.3135815</v>
+        <v>107.03887559</v>
       </c>
       <c r="F165" t="n">
-        <v>111.49487236</v>
+        <v>100.24292719</v>
       </c>
       <c r="G165" t="n">
-        <v>103.55745808</v>
+        <v>105.27333158</v>
       </c>
       <c r="H165" t="n">
-        <v>108.28268322</v>
+        <v>109.93107023</v>
       </c>
       <c r="I165" t="n">
-        <v>100.76407207</v>
+        <v>108.65808407</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>102.41207811</v>
+        <v>105.42051266</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>105.183093</v>
+        <v>104.21947195</v>
       </c>
       <c r="E166" t="n">
-        <v>104.22962292</v>
+        <v>106.94030394</v>
       </c>
       <c r="F166" t="n">
-        <v>100.48555416</v>
+        <v>101.35347219</v>
       </c>
       <c r="G166" t="n">
-        <v>105.09371327</v>
+        <v>106.45126818</v>
       </c>
       <c r="H166" t="n">
-        <v>112.96585671</v>
+        <v>114.85406354</v>
       </c>
       <c r="I166" t="n">
-        <v>111.71999191</v>
+        <v>121.4579186</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>102.3765997</v>
+        <v>105.27614695</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>105.14310463</v>
+        <v>104.18699838</v>
       </c>
       <c r="E167" t="n">
-        <v>105.46749492</v>
+        <v>106.13600733</v>
       </c>
       <c r="F167" t="n">
-        <v>100.78426189</v>
+        <v>99.17429256</v>
       </c>
       <c r="G167" t="n">
-        <v>105.32337379</v>
+        <v>106.67956924</v>
       </c>
       <c r="H167" t="n">
-        <v>110.65658367</v>
+        <v>111.67025788</v>
       </c>
       <c r="I167" t="n">
-        <v>113.8500627</v>
+        <v>133.45259072</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>103.97002367</v>
+        <v>105.59099851</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>104.90425846</v>
+        <v>104.23302493</v>
       </c>
       <c r="E168" t="n">
-        <v>107.03887559</v>
+        <v>105.79077513</v>
       </c>
       <c r="F168" t="n">
-        <v>100.24292719</v>
+        <v>98.1766657</v>
       </c>
       <c r="G168" t="n">
-        <v>105.27333158</v>
+        <v>105.96637664</v>
       </c>
       <c r="H168" t="n">
-        <v>109.93107023</v>
+        <v>112.19153423</v>
       </c>
       <c r="I168" t="n">
-        <v>108.65808407</v>
+        <v>124.06255185</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>105.42051266</v>
+        <v>104.89823357</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>104.21947195</v>
+        <v>104.0104317</v>
       </c>
       <c r="E169" t="n">
-        <v>106.94030394</v>
+        <v>103.67611552</v>
       </c>
       <c r="F169" t="n">
-        <v>101.35347219</v>
+        <v>95.88066734</v>
       </c>
       <c r="G169" t="n">
-        <v>106.45126818</v>
+        <v>104.02372796</v>
       </c>
       <c r="H169" t="n">
-        <v>114.85406354</v>
+        <v>116.0138526</v>
       </c>
       <c r="I169" t="n">
-        <v>121.4579186</v>
+        <v>104.26373025</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>103.113807</v>
+        <v>105.47244785</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.17092756</v>
+        <v>103.14668289</v>
       </c>
       <c r="E170" t="n">
-        <v>100.53342678</v>
+        <v>99.52018330999999</v>
       </c>
       <c r="F170" t="n">
-        <v>116.27393359</v>
+        <v>96.10626636000001</v>
       </c>
       <c r="G170" t="n">
-        <v>102.1080955</v>
+        <v>103.01415931</v>
       </c>
       <c r="H170" t="n">
-        <v>113.81588045</v>
+        <v>122.25987552</v>
       </c>
       <c r="I170" t="n">
-        <v>92.94136773</v>
+        <v>102.19168465</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>102.77526795</v>
+        <v>103.79135031</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>102.90871498</v>
+        <v>102.71412695</v>
       </c>
       <c r="E171" t="n">
-        <v>99.93776957999999</v>
+        <v>95.86725494</v>
       </c>
       <c r="F171" t="n">
-        <v>116.49207906</v>
+        <v>93.48266336</v>
       </c>
       <c r="G171" t="n">
-        <v>102.00768866</v>
+        <v>101.7839362</v>
       </c>
       <c r="H171" t="n">
-        <v>112.88452085</v>
+        <v>119.22308052</v>
       </c>
       <c r="I171" t="n">
-        <v>95.32456169</v>
+        <v>103.53516896</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>102.83263769</v>
+        <v>106.40214012</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>102.80705431</v>
+        <v>102.81391713</v>
       </c>
       <c r="E172" t="n">
-        <v>99.14020599</v>
+        <v>96.85335507000001</v>
       </c>
       <c r="F172" t="n">
-        <v>113.7167207</v>
+        <v>99.88494338</v>
       </c>
       <c r="G172" t="n">
-        <v>102.47639904</v>
+        <v>103.08417592</v>
       </c>
       <c r="H172" t="n">
-        <v>110.57880075</v>
+        <v>116.69734158</v>
       </c>
       <c r="I172" t="n">
-        <v>106.82539262</v>
+        <v>113.00751755</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>105.47244785</v>
+        <v>104.70352486</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.14668289</v>
+        <v>102.90649821</v>
       </c>
       <c r="E173" t="n">
-        <v>99.52018330999999</v>
+        <v>98.30891087000001</v>
       </c>
       <c r="F173" t="n">
-        <v>96.10626636000001</v>
+        <v>107.18668859</v>
       </c>
       <c r="G173" t="n">
-        <v>103.01415931</v>
+        <v>101.70100579</v>
       </c>
       <c r="H173" t="n">
-        <v>122.25987552</v>
+        <v>118.0161866</v>
       </c>
       <c r="I173" t="n">
-        <v>102.19168465</v>
+        <v>92.94634985</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>103.79135031</v>
+        <v>104.33275653</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.71412695</v>
+        <v>103.00677244</v>
       </c>
       <c r="E174" t="n">
-        <v>95.86725494</v>
+        <v>103.08300202</v>
       </c>
       <c r="F174" t="n">
-        <v>93.48266336</v>
+        <v>117.85321786</v>
       </c>
       <c r="G174" t="n">
-        <v>101.7839362</v>
+        <v>103.67076801</v>
       </c>
       <c r="H174" t="n">
-        <v>119.22308052</v>
+        <v>119.14226424</v>
       </c>
       <c r="I174" t="n">
-        <v>103.53516896</v>
+        <v>97.11417836</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>106.40214012</v>
+        <v>103.92445153</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.81391713</v>
+        <v>103.40723175</v>
       </c>
       <c r="E175" t="n">
-        <v>96.85335507000001</v>
+        <v>101.68946536</v>
       </c>
       <c r="F175" t="n">
-        <v>99.88494338</v>
+        <v>113.64808186</v>
       </c>
       <c r="G175" t="n">
-        <v>103.08417592</v>
+        <v>103.27947653</v>
       </c>
       <c r="H175" t="n">
-        <v>116.69734158</v>
+        <v>118.29607922</v>
       </c>
       <c r="I175" t="n">
-        <v>113.00751755</v>
+        <v>98.15917904</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>104.70352486</v>
+        <v>104.15265222</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.90649821</v>
+        <v>103.37328897</v>
       </c>
       <c r="E176" t="n">
-        <v>98.30891087000001</v>
+        <v>100.8696497</v>
       </c>
       <c r="F176" t="n">
-        <v>107.18668859</v>
+        <v>120.02902013</v>
       </c>
       <c r="G176" t="n">
-        <v>101.70100579</v>
+        <v>103.34926587</v>
       </c>
       <c r="H176" t="n">
-        <v>118.0161866</v>
+        <v>118.96771365</v>
       </c>
       <c r="I176" t="n">
-        <v>92.94634985</v>
+        <v>99.34033712999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>104.33275653</v>
+        <v>103.63923082</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>103.00677244</v>
+        <v>103.32157981</v>
       </c>
       <c r="E177" t="n">
-        <v>103.08300202</v>
+        <v>100.7873118</v>
       </c>
       <c r="F177" t="n">
-        <v>117.85321786</v>
+        <v>118.9837732</v>
       </c>
       <c r="G177" t="n">
-        <v>103.67076801</v>
+        <v>102.72647218</v>
       </c>
       <c r="H177" t="n">
-        <v>119.14226424</v>
+        <v>120.16772833</v>
       </c>
       <c r="I177" t="n">
-        <v>97.11417836</v>
+        <v>93.40230098000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>103.92445153</v>
+        <v>102.72121492</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>103.40723175</v>
+        <v>103.33178283</v>
       </c>
       <c r="E178" t="n">
-        <v>101.68946536</v>
+        <v>100.61693412</v>
       </c>
       <c r="F178" t="n">
-        <v>113.64808186</v>
+        <v>113.04398086</v>
       </c>
       <c r="G178" t="n">
-        <v>103.27947653</v>
+        <v>101.88702267</v>
       </c>
       <c r="H178" t="n">
-        <v>118.29607922</v>
+        <v>115.52777321</v>
       </c>
       <c r="I178" t="n">
-        <v>98.15917904</v>
+        <v>90.04732362</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>104.15265222</v>
+        <v>103.113807</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>103.37328897</v>
+        <v>103.17092756</v>
       </c>
       <c r="E179" t="n">
-        <v>100.8696497</v>
+        <v>100.53342678</v>
       </c>
       <c r="F179" t="n">
-        <v>120.02902013</v>
+        <v>116.27393359</v>
       </c>
       <c r="G179" t="n">
-        <v>103.34926587</v>
+        <v>102.1080955</v>
       </c>
       <c r="H179" t="n">
-        <v>118.96771365</v>
+        <v>113.81588045</v>
       </c>
       <c r="I179" t="n">
-        <v>99.34033712999999</v>
+        <v>92.94136773</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>103.63923082</v>
+        <v>102.77526795</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.32157981</v>
+        <v>102.90871498</v>
       </c>
       <c r="E180" t="n">
-        <v>100.7873118</v>
+        <v>99.93776957999999</v>
       </c>
       <c r="F180" t="n">
-        <v>118.9837732</v>
+        <v>116.49207906</v>
       </c>
       <c r="G180" t="n">
-        <v>102.72647218</v>
+        <v>102.00768866</v>
       </c>
       <c r="H180" t="n">
-        <v>120.16772833</v>
+        <v>112.88452085</v>
       </c>
       <c r="I180" t="n">
-        <v>93.40230098000001</v>
+        <v>95.32456169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>102.72121492</v>
+        <v>102.83263769</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.33178283</v>
+        <v>102.80705431</v>
       </c>
       <c r="E181" t="n">
-        <v>100.61693412</v>
+        <v>99.14020599</v>
       </c>
       <c r="F181" t="n">
-        <v>113.04398086</v>
+        <v>113.7167207</v>
       </c>
       <c r="G181" t="n">
-        <v>101.88702267</v>
+        <v>102.47639904</v>
       </c>
       <c r="H181" t="n">
-        <v>115.52777321</v>
+        <v>110.57880075</v>
       </c>
       <c r="I181" t="n">
-        <v>90.04732362</v>
+        <v>106.82539262</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>102.50374173</v>
+        <v>100.25958167</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>100.93942407</v>
+        <v>102.54700733</v>
       </c>
       <c r="E182" t="n">
-        <v>108.02677237</v>
+        <v>98.72469359</v>
       </c>
       <c r="F182" t="n">
-        <v>86.11439934000001</v>
+        <v>107.85118536</v>
       </c>
       <c r="G182" t="n">
-        <v>102.16587202</v>
+        <v>100.8951207</v>
       </c>
       <c r="H182" t="n">
-        <v>91.03201647</v>
+        <v>104.33359002</v>
       </c>
       <c r="I182" t="n">
-        <v>103.77934798</v>
+        <v>99.28868341</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>102.212012</v>
+        <v>101.93737251</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>100.74124337</v>
+        <v>102.52497542</v>
       </c>
       <c r="E183" t="n">
-        <v>106.79805088</v>
+        <v>101.05867289</v>
       </c>
       <c r="F183" t="n">
-        <v>86.26665754</v>
+        <v>111.4862157</v>
       </c>
       <c r="G183" t="n">
-        <v>102.32971347</v>
+        <v>102.24949424</v>
       </c>
       <c r="H183" t="n">
-        <v>92.72419614</v>
+        <v>105.67250362</v>
       </c>
       <c r="I183" t="n">
-        <v>108.26307144</v>
+        <v>104.27492938</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>101.90669508</v>
+        <v>102.49254182</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>100.75707115</v>
+        <v>102.38159518</v>
       </c>
       <c r="E184" t="n">
-        <v>106.79051275</v>
+        <v>103.42879029</v>
       </c>
       <c r="F184" t="n">
-        <v>88.92239712</v>
+        <v>106.12561662</v>
       </c>
       <c r="G184" t="n">
-        <v>102.72290235</v>
+        <v>102.53738433</v>
       </c>
       <c r="H184" t="n">
-        <v>93.09116615000001</v>
+        <v>107.92084073</v>
       </c>
       <c r="I184" t="n">
-        <v>111.24159202</v>
+        <v>100.83520151</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.25958167</v>
+        <v>101.95255562</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>102.54700733</v>
+        <v>102.24790773</v>
       </c>
       <c r="E185" t="n">
-        <v>98.72469359</v>
+        <v>105.70914644</v>
       </c>
       <c r="F185" t="n">
-        <v>107.85118536</v>
+        <v>96.46495725</v>
       </c>
       <c r="G185" t="n">
-        <v>100.8951207</v>
+        <v>102.97524159</v>
       </c>
       <c r="H185" t="n">
-        <v>104.33359002</v>
+        <v>102.23760488</v>
       </c>
       <c r="I185" t="n">
-        <v>99.28868341</v>
+        <v>107.67608552</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>101.93737251</v>
+        <v>101.9260777</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>102.52497542</v>
+        <v>102.10741806</v>
       </c>
       <c r="E186" t="n">
-        <v>101.05867289</v>
+        <v>103.72018067</v>
       </c>
       <c r="F186" t="n">
-        <v>111.4862157</v>
+        <v>86.72116413000001</v>
       </c>
       <c r="G186" t="n">
-        <v>102.24949424</v>
+        <v>101.72693181</v>
       </c>
       <c r="H186" t="n">
-        <v>105.67250362</v>
+        <v>97.10555988</v>
       </c>
       <c r="I186" t="n">
-        <v>104.27492938</v>
+        <v>106.73394479</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>102.49254182</v>
+        <v>102.55292178</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.38159518</v>
+        <v>101.73211895</v>
       </c>
       <c r="E187" t="n">
-        <v>103.42879029</v>
+        <v>103.91059062</v>
       </c>
       <c r="F187" t="n">
-        <v>106.12561662</v>
+        <v>87.98795653000001</v>
       </c>
       <c r="G187" t="n">
-        <v>102.53738433</v>
+        <v>101.95592693</v>
       </c>
       <c r="H187" t="n">
-        <v>107.92084073</v>
+        <v>92.79807785</v>
       </c>
       <c r="I187" t="n">
-        <v>100.83520151</v>
+        <v>111.60465193</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>101.95255562</v>
+        <v>102.74034741</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.24790773</v>
+        <v>101.60057151</v>
       </c>
       <c r="E188" t="n">
-        <v>105.70914644</v>
+        <v>108.55818305</v>
       </c>
       <c r="F188" t="n">
-        <v>96.46495725</v>
+        <v>85.51868665000001</v>
       </c>
       <c r="G188" t="n">
-        <v>102.97524159</v>
+        <v>102.89403329</v>
       </c>
       <c r="H188" t="n">
-        <v>102.23760488</v>
+        <v>92.64413243</v>
       </c>
       <c r="I188" t="n">
-        <v>107.67608552</v>
+        <v>109.87938858</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>101.9260777</v>
+        <v>102.86532977</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.10741806</v>
+        <v>101.38341373</v>
       </c>
       <c r="E189" t="n">
-        <v>103.72018067</v>
+        <v>110.30173133</v>
       </c>
       <c r="F189" t="n">
-        <v>86.72116413000001</v>
+        <v>88.44401633</v>
       </c>
       <c r="G189" t="n">
-        <v>101.72693181</v>
+        <v>103.87357432</v>
       </c>
       <c r="H189" t="n">
-        <v>97.10555988</v>
+        <v>92.36006915999999</v>
       </c>
       <c r="I189" t="n">
-        <v>106.73394479</v>
+        <v>115.21330835</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>102.55292178</v>
+        <v>102.55006972</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>101.73211895</v>
+        <v>101.02333369</v>
       </c>
       <c r="E190" t="n">
-        <v>103.91059062</v>
+        <v>109.02965271</v>
       </c>
       <c r="F190" t="n">
-        <v>87.98795653000001</v>
+        <v>89.44780489999999</v>
       </c>
       <c r="G190" t="n">
-        <v>101.95592693</v>
+        <v>102.89622059</v>
       </c>
       <c r="H190" t="n">
-        <v>92.79807785</v>
+        <v>89.45474046</v>
       </c>
       <c r="I190" t="n">
-        <v>111.60465193</v>
+        <v>109.5123229</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>102.74034741</v>
+        <v>102.50374173</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>101.60057151</v>
+        <v>100.93942407</v>
       </c>
       <c r="E191" t="n">
-        <v>108.55818305</v>
+        <v>108.02677237</v>
       </c>
       <c r="F191" t="n">
-        <v>85.51868665000001</v>
+        <v>86.11439934000001</v>
       </c>
       <c r="G191" t="n">
-        <v>102.89403329</v>
+        <v>102.16587202</v>
       </c>
       <c r="H191" t="n">
-        <v>92.64413243</v>
+        <v>91.03201647</v>
       </c>
       <c r="I191" t="n">
-        <v>109.87938858</v>
+        <v>103.77934798</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>102.86532977</v>
+        <v>102.212012</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>101.38341373</v>
+        <v>100.74124337</v>
       </c>
       <c r="E192" t="n">
-        <v>110.30173133</v>
+        <v>106.79805088</v>
       </c>
       <c r="F192" t="n">
-        <v>88.44401633</v>
+        <v>86.26665754</v>
       </c>
       <c r="G192" t="n">
-        <v>103.87357432</v>
+        <v>102.32971347</v>
       </c>
       <c r="H192" t="n">
-        <v>92.36006915999999</v>
+        <v>92.72419614</v>
       </c>
       <c r="I192" t="n">
-        <v>115.21330835</v>
+        <v>108.26307144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>102.55006972</v>
+        <v>101.90669508</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>101.02333369</v>
+        <v>100.75707115</v>
       </c>
       <c r="E193" t="n">
-        <v>109.02965271</v>
+        <v>106.79051275</v>
       </c>
       <c r="F193" t="n">
-        <v>89.44780489999999</v>
+        <v>88.92239712</v>
       </c>
       <c r="G193" t="n">
-        <v>102.89622059</v>
+        <v>102.72290235</v>
       </c>
       <c r="H193" t="n">
-        <v>89.45474046</v>
+        <v>93.09116615000001</v>
       </c>
       <c r="I193" t="n">
-        <v>109.5123229</v>
+        <v>111.24159202</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>103.377356599999</v>
+        <v>102.25531025</v>
       </c>
       <c r="C194" t="n">
-        <v>103.7472908</v>
+        <v>112.15099816</v>
       </c>
       <c r="D194" t="n">
-        <v>100.4060917</v>
+        <v>100.56692775</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>97.2085274899999</v>
+        <v>96.88355967</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>107.0484986</v>
+        <v>93.2591805</v>
       </c>
       <c r="I194" t="n">
-        <v>113.476631999999</v>
+        <v>113.23430773</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>103.4933997</v>
+        <v>102.96183699</v>
       </c>
       <c r="C195" t="n">
-        <v>104.1961217</v>
+        <v>117.59967671</v>
       </c>
       <c r="D195" t="n">
-        <v>100.7857216</v>
+        <v>100.38570829</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>97.51698096</v>
+        <v>96.89318116</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>104.100751</v>
+        <v>92.04711836</v>
       </c>
       <c r="I195" t="n">
-        <v>116.7492043</v>
+        <v>128.86725509</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>102.7275503</v>
+        <v>101.37189819</v>
       </c>
       <c r="C196" t="n">
-        <v>104.5806515</v>
+        <v>119.11421949</v>
       </c>
       <c r="D196" t="n">
-        <v>101.0278646</v>
+        <v>100.31306851</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>94.73159385</v>
+        <v>94.03025373</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>102.8365714</v>
+        <v>89.07256975999999</v>
       </c>
       <c r="I196" t="n">
-        <v>104.1472217</v>
+        <v>134.67079974</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.25531025</v>
+        <v>102.71823094</v>
       </c>
       <c r="C197" t="n">
-        <v>112.15099816</v>
+        <v>122.87782041</v>
       </c>
       <c r="D197" t="n">
-        <v>100.56692775</v>
+        <v>100.19281392</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>96.88355967</v>
+        <v>98.36262032</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>93.2591805</v>
+        <v>90.7567913</v>
       </c>
       <c r="I197" t="n">
-        <v>113.23430773</v>
+        <v>123.08630554</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>102.96183699</v>
+        <v>103.4330492</v>
       </c>
       <c r="C198" t="n">
-        <v>117.59967671</v>
+        <v>123.59586052</v>
       </c>
       <c r="D198" t="n">
-        <v>100.38570829</v>
+        <v>100.39388065</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.89318116</v>
+        <v>99.77791778</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>92.04711836</v>
+        <v>91.51652730000001</v>
       </c>
       <c r="I198" t="n">
-        <v>128.86725509</v>
+        <v>106.57979265</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>101.37189819</v>
+        <v>104.27312449</v>
       </c>
       <c r="C199" t="n">
-        <v>119.11421949</v>
+        <v>121.71183768</v>
       </c>
       <c r="D199" t="n">
-        <v>100.31306851</v>
+        <v>100.36357952</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>94.03025373</v>
+        <v>100.46965367</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>89.07256975999999</v>
+        <v>96.39432266999999</v>
       </c>
       <c r="I199" t="n">
-        <v>134.67079974</v>
+        <v>94.45213529</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>102.71823094</v>
+        <v>104.48598145</v>
       </c>
       <c r="C200" t="n">
-        <v>122.87782041</v>
+        <v>112.58969207</v>
       </c>
       <c r="D200" t="n">
-        <v>100.19281392</v>
+        <v>100.33844291</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>98.36262032</v>
+        <v>98.13191589</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>90.7567913</v>
+        <v>100.16017069</v>
       </c>
       <c r="I200" t="n">
-        <v>123.08630554</v>
+        <v>96.21163271</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>103.4330492</v>
+        <v>103.73004548</v>
       </c>
       <c r="C201" t="n">
-        <v>123.59586052</v>
+        <v>105.2181014</v>
       </c>
       <c r="D201" t="n">
-        <v>100.39388065</v>
+        <v>100.17803559</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>99.77791778</v>
+        <v>92.38191963</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>91.51652730000001</v>
+        <v>99.98124790999999</v>
       </c>
       <c r="I201" t="n">
-        <v>106.57979265</v>
+        <v>97.0820192</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>104.27312449</v>
+        <v>104.3657371</v>
       </c>
       <c r="C202" t="n">
-        <v>121.71183768</v>
+        <v>104.5836062</v>
       </c>
       <c r="D202" t="n">
-        <v>100.36357952</v>
+        <v>100.213256299999</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>100.46965367</v>
+        <v>95.52076443999989</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>96.39432266999999</v>
+        <v>107.448235499999</v>
       </c>
       <c r="I202" t="n">
-        <v>94.45213529</v>
+        <v>108.970395199999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>104.48598145</v>
+        <v>103.377356599999</v>
       </c>
       <c r="C203" t="n">
-        <v>112.58969207</v>
+        <v>103.7472908</v>
       </c>
       <c r="D203" t="n">
-        <v>100.33844291</v>
+        <v>100.4060917</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>98.13191589</v>
+        <v>97.2085274899999</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>100.16017069</v>
+        <v>107.0484986</v>
       </c>
       <c r="I203" t="n">
-        <v>96.21163271</v>
+        <v>113.476631999999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>103.73004548</v>
+        <v>103.4933997</v>
       </c>
       <c r="C204" t="n">
-        <v>105.2181014</v>
+        <v>104.1961217</v>
       </c>
       <c r="D204" t="n">
-        <v>100.17803559</v>
+        <v>100.7857216</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>92.38191963</v>
+        <v>97.51698096</v>
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>99.98124790999999</v>
+        <v>104.100751</v>
       </c>
       <c r="I204" t="n">
-        <v>97.0820192</v>
+        <v>116.7492043</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>104.3657371</v>
+        <v>102.7275503</v>
       </c>
       <c r="C205" t="n">
-        <v>104.5836062</v>
+        <v>104.5806515</v>
       </c>
       <c r="D205" t="n">
-        <v>100.213256299999</v>
+        <v>101.0278646</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>95.52076443999989</v>
+        <v>94.73159385</v>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>107.448235499999</v>
+        <v>102.8365714</v>
       </c>
       <c r="I205" t="n">
-        <v>108.970395199999</v>
+        <v>104.1472217</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>103.1913564</v>
+        <v>105.2939729</v>
       </c>
       <c r="C206" t="n">
-        <v>92.58757848</v>
+        <v>105.5392766</v>
       </c>
       <c r="D206" t="n">
-        <v>101.9059391</v>
+        <v>101.4576375</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>103.0773764</v>
+        <v>89.61090638</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>98.90169204999999</v>
+        <v>104.1930949</v>
       </c>
       <c r="I206" t="n">
-        <v>100.4420924</v>
+        <v>103.0621092</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>102.7374812</v>
+        <v>101.30153273</v>
       </c>
       <c r="C207" t="n">
-        <v>93.51220201</v>
+        <v>99.15136006</v>
       </c>
       <c r="D207" t="n">
-        <v>101.6732138</v>
+        <v>101.39910475</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>105.865056</v>
+        <v>83.23371865999999</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>102.327919</v>
+        <v>101.162658</v>
       </c>
       <c r="I207" t="n">
-        <v>90.96648295</v>
+        <v>75.65549998</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>103.7443679</v>
+        <v>103.8695453</v>
       </c>
       <c r="C208" t="n">
-        <v>94.30079238</v>
+        <v>97.56164273</v>
       </c>
       <c r="D208" t="n">
-        <v>101.4980968</v>
+        <v>101.5520214</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>112.2311301</v>
+        <v>87.1167952</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>105.9885806</v>
+        <v>103.5479896</v>
       </c>
       <c r="I208" t="n">
-        <v>91.57515925</v>
+        <v>73.37904247</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>105.2939729</v>
+        <v>104.9721377</v>
       </c>
       <c r="C209" t="n">
-        <v>105.5392766</v>
+        <v>94.24127808</v>
       </c>
       <c r="D209" t="n">
-        <v>101.4576375</v>
+        <v>101.5683574</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>89.61090638</v>
+        <v>87.36749324</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>104.1930949</v>
+        <v>107.6727372</v>
       </c>
       <c r="I209" t="n">
-        <v>103.0621092</v>
+        <v>78.40388191</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>101.30153273</v>
+        <v>105.3901657</v>
       </c>
       <c r="C210" t="n">
-        <v>99.15136006</v>
+        <v>90.59276128</v>
       </c>
       <c r="D210" t="n">
-        <v>101.39910475</v>
+        <v>101.55143</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>83.23371865999999</v>
+        <v>83.80201771999999</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>101.162658</v>
+        <v>113.475771</v>
       </c>
       <c r="I210" t="n">
-        <v>75.65549998</v>
+        <v>93.44549395999999</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>103.8695453</v>
+        <v>104.0788416</v>
       </c>
       <c r="C211" t="n">
-        <v>97.56164273</v>
+        <v>87.16806067</v>
       </c>
       <c r="D211" t="n">
-        <v>101.5520214</v>
+        <v>101.5940057</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>87.1167952</v>
+        <v>89.41052066</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="n">
-        <v>103.5479896</v>
+        <v>110.0176885</v>
       </c>
       <c r="I211" t="n">
-        <v>73.37904247</v>
+        <v>104.9094076</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>104.9721377</v>
+        <v>103.5494214</v>
       </c>
       <c r="C212" t="n">
-        <v>94.24127808</v>
+        <v>87.89420441</v>
       </c>
       <c r="D212" t="n">
-        <v>101.5683574</v>
+        <v>101.6374571</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>87.36749324</v>
+        <v>93.64830782999999</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>107.6727372</v>
+        <v>102.7915092</v>
       </c>
       <c r="I212" t="n">
-        <v>78.40388191</v>
+        <v>108.6885692</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>105.3901657</v>
+        <v>103.381564</v>
       </c>
       <c r="C213" t="n">
-        <v>90.59276128</v>
+        <v>89.53569483</v>
       </c>
       <c r="D213" t="n">
-        <v>101.55143</v>
+        <v>101.7270885</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>83.80201771999999</v>
+        <v>104.1093489</v>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
-        <v>113.475771</v>
+        <v>101.0807653</v>
       </c>
       <c r="I213" t="n">
-        <v>93.44549395999999</v>
+        <v>109.5145073</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>104.0788416</v>
+        <v>102.1659389</v>
       </c>
       <c r="C214" t="n">
-        <v>87.16806067</v>
+        <v>90.59938307</v>
       </c>
       <c r="D214" t="n">
-        <v>101.5940057</v>
+        <v>101.903918</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>89.41052066</v>
+        <v>103.4917595</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
-        <v>110.0176885</v>
+        <v>97.06983006</v>
       </c>
       <c r="I214" t="n">
-        <v>104.9094076</v>
+        <v>99.27559994000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>103.5494214</v>
+        <v>103.1913564</v>
       </c>
       <c r="C215" t="n">
-        <v>87.89420441</v>
+        <v>92.58757848</v>
       </c>
       <c r="D215" t="n">
-        <v>101.6374571</v>
+        <v>101.9059391</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>93.64830782999999</v>
+        <v>103.0773764</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>102.7915092</v>
+        <v>98.90169204999999</v>
       </c>
       <c r="I215" t="n">
-        <v>108.6885692</v>
+        <v>100.4420924</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103.381564</v>
+        <v>102.7374812</v>
       </c>
       <c r="C216" t="n">
-        <v>89.53569483</v>
+        <v>93.51220201</v>
       </c>
       <c r="D216" t="n">
-        <v>101.7270885</v>
+        <v>101.6732138</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>104.1093489</v>
+        <v>105.865056</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>101.0807653</v>
+        <v>102.327919</v>
       </c>
       <c r="I216" t="n">
-        <v>109.5145073</v>
+        <v>90.96648295</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>102.1659389</v>
+        <v>103.7443679</v>
       </c>
       <c r="C217" t="n">
-        <v>90.59938307</v>
+        <v>94.30079238</v>
       </c>
       <c r="D217" t="n">
-        <v>101.903918</v>
+        <v>101.4980968</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>103.4917595</v>
+        <v>112.2311301</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>97.06983006</v>
+        <v>105.9885806</v>
       </c>
       <c r="I217" t="n">
-        <v>99.27559994000001</v>
+        <v>91.57515925</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>101.44152934</v>
+        <v>102.4439934</v>
       </c>
       <c r="C218" t="n">
-        <v>99.69966427999999</v>
+        <v>92.72549185</v>
       </c>
       <c r="D218" t="n">
-        <v>100.30559902</v>
+        <v>101.1739431</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>108.80110382</v>
+        <v>115.1871821</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>112.72786007</v>
+        <v>105.2173818</v>
       </c>
       <c r="I218" t="n">
-        <v>109.07995028</v>
+        <v>93.97077163</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.6068116</v>
+        <v>108.880611</v>
       </c>
       <c r="C219" t="n">
-        <v>100.05060917</v>
+        <v>95.4123579</v>
       </c>
       <c r="D219" t="n">
-        <v>100.40121063</v>
+        <v>101.0853271</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>105.95113748</v>
+        <v>124.9376591</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
-        <v>115.28916087</v>
+        <v>109.1145446</v>
       </c>
       <c r="I219" t="n">
-        <v>101.338482</v>
+        <v>115.9761695</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.41655362</v>
+        <v>105.9560557</v>
       </c>
       <c r="C220" t="n">
-        <v>99.75082288999999</v>
+        <v>92.12987936</v>
       </c>
       <c r="D220" t="n">
-        <v>100.38730536</v>
+        <v>101.1051694</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>99.86422047000001</v>
+        <v>118.392974</v>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>111.16741056</v>
+        <v>106.9404799</v>
       </c>
       <c r="I220" t="n">
-        <v>102.93115748</v>
+        <v>107.1203044</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4439934</v>
+        <v>103.6667002</v>
       </c>
       <c r="C221" t="n">
-        <v>92.72549185</v>
+        <v>88.44848322999999</v>
       </c>
       <c r="D221" t="n">
-        <v>101.1739431</v>
+        <v>101.1315927</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>115.1871821</v>
+        <v>115.8548452</v>
       </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>105.2173818</v>
+        <v>103.1455693</v>
       </c>
       <c r="I221" t="n">
-        <v>93.97077163</v>
+        <v>107.3356206</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>108.880611</v>
+        <v>101.6957024</v>
       </c>
       <c r="C222" t="n">
-        <v>95.4123579</v>
+        <v>87.7721992</v>
       </c>
       <c r="D222" t="n">
-        <v>101.0853271</v>
+        <v>101.0440635</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>124.9376591</v>
+        <v>123.4478671</v>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>109.1145446</v>
+        <v>96.78304915</v>
       </c>
       <c r="I222" t="n">
-        <v>115.9761695</v>
+        <v>109.1104869</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.9560557</v>
+        <v>100.6736017</v>
       </c>
       <c r="C223" t="n">
-        <v>92.12987936</v>
+        <v>90.83239469</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1051694</v>
+        <v>100.94438375</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>118.392974</v>
+        <v>116.47980734</v>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>106.9404799</v>
+        <v>95.40713531</v>
       </c>
       <c r="I223" t="n">
-        <v>107.1203044</v>
+        <v>108.51550004</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>103.6667002</v>
+        <v>100.40297374</v>
       </c>
       <c r="C224" t="n">
-        <v>88.44848322999999</v>
+        <v>93.46081928</v>
       </c>
       <c r="D224" t="n">
-        <v>101.1315927</v>
+        <v>100.77168666</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>115.8548452</v>
+        <v>112.77588425</v>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>103.1455693</v>
+        <v>100.55319638</v>
       </c>
       <c r="I224" t="n">
-        <v>107.3356206</v>
+        <v>102.78361831</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>101.6957024</v>
+        <v>100.93940426</v>
       </c>
       <c r="C225" t="n">
-        <v>87.7721992</v>
+        <v>97.04126008999999</v>
       </c>
       <c r="D225" t="n">
-        <v>101.0440635</v>
+        <v>100.59615095</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>123.4478671</v>
+        <v>110.42471154</v>
       </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="n">
-        <v>96.78304915</v>
+        <v>105.93015801</v>
       </c>
       <c r="I225" t="n">
-        <v>109.1104869</v>
+        <v>103.16545267</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>100.6736017</v>
+        <v>101.60365097</v>
       </c>
       <c r="C226" t="n">
-        <v>90.83239469</v>
+        <v>98.94552562</v>
       </c>
       <c r="D226" t="n">
-        <v>100.94438375</v>
+        <v>100.4533635</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>116.47980734</v>
+        <v>107.323773</v>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>95.40713531</v>
+        <v>111.55645204</v>
       </c>
       <c r="I226" t="n">
-        <v>108.51550004</v>
+        <v>112.18686848</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>100.40297374</v>
+        <v>101.44152934</v>
       </c>
       <c r="C227" t="n">
-        <v>93.46081928</v>
+        <v>99.69966427999999</v>
       </c>
       <c r="D227" t="n">
-        <v>100.77168666</v>
+        <v>100.30559902</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>112.77588425</v>
+        <v>108.80110382</v>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="n">
-        <v>100.55319638</v>
+        <v>112.72786007</v>
       </c>
       <c r="I227" t="n">
-        <v>102.78361831</v>
+        <v>109.07995028</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>100.93940426</v>
+        <v>102.6068116</v>
       </c>
       <c r="C228" t="n">
-        <v>97.04126008999999</v>
+        <v>100.05060917</v>
       </c>
       <c r="D228" t="n">
-        <v>100.59615095</v>
+        <v>100.40121063</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>110.42471154</v>
+        <v>105.95113748</v>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
-        <v>105.93015801</v>
+        <v>115.28916087</v>
       </c>
       <c r="I228" t="n">
-        <v>103.16545267</v>
+        <v>101.338482</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>101.60365097</v>
+        <v>102.41655362</v>
       </c>
       <c r="C229" t="n">
-        <v>98.94552562</v>
+        <v>99.75082288999999</v>
       </c>
       <c r="D229" t="n">
-        <v>100.4533635</v>
+        <v>100.38730536</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>107.323773</v>
+        <v>99.86422047000001</v>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="n">
-        <v>111.55645204</v>
+        <v>111.16741056</v>
       </c>
       <c r="I229" t="n">
-        <v>112.18686848</v>
+        <v>102.93115748</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>103.46305421</v>
+        <v>101.89469706</v>
       </c>
       <c r="C230" t="n">
-        <v>173.38855841</v>
+        <v>98.91481455</v>
       </c>
       <c r="D230" t="n">
-        <v>100.42688864</v>
+        <v>100.40772349</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>111.7713634</v>
+        <v>99.76188791</v>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="n">
-        <v>100.73435454</v>
+        <v>108.25336753</v>
       </c>
       <c r="I230" t="n">
-        <v>89.98059225999999</v>
+        <v>103.19799718</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>102.85836356</v>
+        <v>98.05293936</v>
       </c>
       <c r="C231" t="n">
-        <v>181.83684774</v>
+        <v>97.82462332</v>
       </c>
       <c r="D231" t="n">
-        <v>100.57988292</v>
+        <v>100.49764519</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>111.14480203</v>
+        <v>93.95270219</v>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="n">
-        <v>94.14231058</v>
+        <v>105.41571597</v>
       </c>
       <c r="I231" t="n">
-        <v>103.6112</v>
+        <v>101.16781196</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>102.19381232</v>
+        <v>97.9487118</v>
       </c>
       <c r="C232" t="n">
-        <v>173.38452199</v>
+        <v>104.402685</v>
       </c>
       <c r="D232" t="n">
-        <v>100.63949584</v>
+        <v>100.37998477</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>106.95969766</v>
+        <v>97.20126097000001</v>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="n">
-        <v>92.67915422</v>
+        <v>108.2928798</v>
       </c>
       <c r="I232" t="n">
-        <v>110.50551045</v>
+        <v>115.67954743</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.89469706</v>
+        <v>98.89918075</v>
       </c>
       <c r="C233" t="n">
-        <v>98.91481455</v>
+        <v>111.63021734</v>
       </c>
       <c r="D233" t="n">
-        <v>100.40772349</v>
+        <v>100.33363751</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>99.76188791</v>
+        <v>103.46691864</v>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>108.25336753</v>
+        <v>114.02693558</v>
       </c>
       <c r="I233" t="n">
-        <v>103.19799718</v>
+        <v>117.78439391</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>98.05293936</v>
+        <v>99.75791167</v>
       </c>
       <c r="C234" t="n">
-        <v>97.82462332</v>
+        <v>114.53796122</v>
       </c>
       <c r="D234" t="n">
-        <v>100.49764519</v>
+        <v>100.32472098</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>93.95270219</v>
+        <v>108.77859445</v>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
-        <v>105.41571597</v>
+        <v>128.53492911</v>
       </c>
       <c r="I234" t="n">
-        <v>101.16781196</v>
+        <v>113.7008176</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>97.9487118</v>
+        <v>99.89555903</v>
       </c>
       <c r="C235" t="n">
-        <v>104.402685</v>
+        <v>116.43017663</v>
       </c>
       <c r="D235" t="n">
-        <v>100.37998477</v>
+        <v>100.42807137</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>97.20126097000001</v>
+        <v>106.39178446</v>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
-        <v>108.2928798</v>
+        <v>143.58568417</v>
       </c>
       <c r="I235" t="n">
-        <v>115.67954743</v>
+        <v>104.73304429</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>98.89918075</v>
+        <v>100.73799237</v>
       </c>
       <c r="C236" t="n">
-        <v>111.63021734</v>
+        <v>120.59012827</v>
       </c>
       <c r="D236" t="n">
-        <v>100.33363751</v>
+        <v>100.49991154</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>103.46691864</v>
+        <v>111.63962927</v>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
-        <v>114.02693558</v>
+        <v>140.94161449</v>
       </c>
       <c r="I236" t="n">
-        <v>117.78439391</v>
+        <v>105.92197245</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>99.75791167</v>
+        <v>102.15057894</v>
       </c>
       <c r="C237" t="n">
-        <v>114.53796122</v>
+        <v>134.1849919</v>
       </c>
       <c r="D237" t="n">
-        <v>100.32472098</v>
+        <v>100.47329062</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>108.77859445</v>
+        <v>104.41131453</v>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>128.53492911</v>
+        <v>124.5964483</v>
       </c>
       <c r="I237" t="n">
-        <v>113.7008176</v>
+        <v>98.97972186</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>99.89555903</v>
+        <v>103.25287155</v>
       </c>
       <c r="C238" t="n">
-        <v>116.43017663</v>
+        <v>151.11581366</v>
       </c>
       <c r="D238" t="n">
-        <v>100.42807137</v>
+        <v>100.46758054</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>106.39178446</v>
+        <v>109.18231341</v>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="n">
-        <v>143.58568417</v>
+        <v>108.0618424</v>
       </c>
       <c r="I238" t="n">
-        <v>104.73304429</v>
+        <v>89.15342235</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>100.73799237</v>
+        <v>103.46305421</v>
       </c>
       <c r="C239" t="n">
-        <v>120.59012827</v>
+        <v>173.38855841</v>
       </c>
       <c r="D239" t="n">
-        <v>100.49991154</v>
+        <v>100.42688864</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>111.63962927</v>
+        <v>111.7713634</v>
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
-        <v>140.94161449</v>
+        <v>100.73435454</v>
       </c>
       <c r="I239" t="n">
-        <v>105.92197245</v>
+        <v>89.98059225999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>102.15057894</v>
+        <v>102.85836356</v>
       </c>
       <c r="C240" t="n">
-        <v>134.1849919</v>
+        <v>181.83684774</v>
       </c>
       <c r="D240" t="n">
-        <v>100.47329062</v>
+        <v>100.57988292</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>104.41131453</v>
+        <v>111.14480203</v>
       </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
-        <v>124.5964483</v>
+        <v>94.14231058</v>
       </c>
       <c r="I240" t="n">
-        <v>98.97972186</v>
+        <v>103.6112</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>103.25287155</v>
+        <v>102.19381232</v>
       </c>
       <c r="C241" t="n">
-        <v>151.11581366</v>
+        <v>173.38452199</v>
       </c>
       <c r="D241" t="n">
-        <v>100.46758054</v>
+        <v>100.63949584</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>109.18231341</v>
+        <v>106.95969766</v>
       </c>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
-        <v>108.0618424</v>
+        <v>92.67915422</v>
       </c>
       <c r="I241" t="n">
-        <v>89.15342235</v>
+        <v>110.50551045</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>102.2</v>
+        <v>104.05809803</v>
       </c>
       <c r="C242" t="n">
-        <v>100.6</v>
+        <v>184.60109276</v>
       </c>
       <c r="D242" t="n">
-        <v>101.5</v>
+        <v>100.58456961</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>82.40000000000001</v>
+        <v>102.93493607</v>
       </c>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="n">
-        <v>98.8</v>
+        <v>95.06358040000001</v>
       </c>
       <c r="I242" t="n">
-        <v>117.9</v>
+        <v>115.90978772</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>101.1</v>
+        <v>103.27850557</v>
       </c>
       <c r="C243" t="n">
-        <v>91.40000000000001</v>
+        <v>195.43729977</v>
       </c>
       <c r="D243" t="n">
-        <v>101.5</v>
+        <v>100.61357948</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>81.8</v>
+        <v>101.051433</v>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>101.4</v>
+        <v>94.48013536000001</v>
       </c>
       <c r="I243" t="n">
-        <v>109.8</v>
+        <v>111.0143486</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>101.8</v>
+        <v>103.90653759</v>
       </c>
       <c r="C244" t="n">
-        <v>100.2</v>
+        <v>184.81685677</v>
       </c>
       <c r="D244" t="n">
-        <v>101.5</v>
+        <v>100.76448747</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>88.5</v>
+        <v>102.63745503</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="n">
-        <v>104.5</v>
+        <v>94.18395099</v>
       </c>
       <c r="I244" t="n">
-        <v>107.7</v>
+        <v>100.6635001</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>104.05809803</v>
+        <v>102.84210063</v>
       </c>
       <c r="C245" t="n">
-        <v>184.60109276</v>
+        <v>171.3272572</v>
       </c>
       <c r="D245" t="n">
-        <v>100.58456961</v>
+        <v>101.05968468</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.93493607</v>
+        <v>97.29290189</v>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>95.06358040000001</v>
+        <v>89.18369341</v>
       </c>
       <c r="I245" t="n">
-        <v>115.90978772</v>
+        <v>95.71642292999999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>103.27850557</v>
+        <v>104.17346369</v>
       </c>
       <c r="C246" t="n">
-        <v>195.43729977</v>
+        <v>161.00458436</v>
       </c>
       <c r="D246" t="n">
-        <v>100.61357948</v>
+        <v>101.51360664</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>101.051433</v>
+        <v>86.52872694</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
-        <v>94.48013536000001</v>
+        <v>80.56012567000001</v>
       </c>
       <c r="I246" t="n">
-        <v>111.0143486</v>
+        <v>91.07429472</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>103.90653759</v>
+        <v>105.13275064</v>
       </c>
       <c r="C247" t="n">
-        <v>184.81685677</v>
+        <v>161.88676205</v>
       </c>
       <c r="D247" t="n">
-        <v>100.76448747</v>
+        <v>101.48079378</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>102.63745503</v>
+        <v>85.19730521</v>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
-        <v>94.18395099</v>
+        <v>71.12356066</v>
       </c>
       <c r="I247" t="n">
-        <v>100.6635001</v>
+        <v>102.59869498</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>102.84210063</v>
+        <v>104.85653518</v>
       </c>
       <c r="C248" t="n">
-        <v>171.3272572</v>
+        <v>165.53380979</v>
       </c>
       <c r="D248" t="n">
-        <v>101.05968468</v>
+        <v>101.41589104</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>97.29290189</v>
+        <v>83.96555300999999</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="n">
-        <v>89.18369341</v>
+        <v>71.95136893</v>
       </c>
       <c r="I248" t="n">
-        <v>95.71642292999999</v>
+        <v>107.72511876</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>104.17346369</v>
+        <v>103.21899898</v>
       </c>
       <c r="C249" t="n">
-        <v>161.00458436</v>
+        <v>144.06621236</v>
       </c>
       <c r="D249" t="n">
-        <v>101.51360664</v>
+        <v>101.51552569</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>86.52872694</v>
+        <v>87.75592428</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
-        <v>80.56012567000001</v>
+        <v>79.34329485000001</v>
       </c>
       <c r="I249" t="n">
-        <v>91.07429472</v>
+        <v>112.85716252</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>105.13275064</v>
+        <v>102.27199493</v>
       </c>
       <c r="C250" t="n">
-        <v>161.88676205</v>
+        <v>122.88706925</v>
       </c>
       <c r="D250" t="n">
-        <v>101.48079378</v>
+        <v>101.49511359</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>85.19730521</v>
+        <v>82.80534362</v>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="n">
-        <v>71.12356066</v>
+        <v>91.23709727000001</v>
       </c>
       <c r="I250" t="n">
-        <v>102.59869498</v>
+        <v>116.99753961</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>104.85653518</v>
+        <v>102.2</v>
       </c>
       <c r="C251" t="n">
-        <v>165.53380979</v>
+        <v>100.6</v>
       </c>
       <c r="D251" t="n">
-        <v>101.41589104</v>
+        <v>101.5</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>83.96555300999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="n">
-        <v>71.95136893</v>
+        <v>98.8</v>
       </c>
       <c r="I251" t="n">
-        <v>107.72511876</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.21899898</v>
+        <v>101.1</v>
       </c>
       <c r="C252" t="n">
-        <v>144.06621236</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D252" t="n">
-        <v>101.51552569</v>
+        <v>101.5</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>87.75592428</v>
+        <v>81.8</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="n">
-        <v>79.34329485000001</v>
+        <v>101.4</v>
       </c>
       <c r="I252" t="n">
-        <v>112.85716252</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>102.27199493</v>
+        <v>101.8</v>
       </c>
       <c r="C253" t="n">
-        <v>122.88706925</v>
+        <v>100.2</v>
       </c>
       <c r="D253" t="n">
-        <v>101.49511359</v>
+        <v>101.5</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>82.80534362</v>
+        <v>88.5</v>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="n">
-        <v>91.23709727000001</v>
+        <v>104.5</v>
       </c>
       <c r="I253" t="n">
-        <v>116.99753961</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>110.1</v>
+        <v>101.6</v>
       </c>
       <c r="C254" t="n">
-        <v>69.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D254" t="n">
-        <v>101</v>
+        <v>101.5</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>113.9</v>
+        <v>102.4</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="n">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
       <c r="I254" t="n">
-        <v>114.1</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>109.8</v>
+        <v>106.3</v>
       </c>
       <c r="C255" t="n">
-        <v>77.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D255" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>119.1</v>
+        <v>105.4</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="n">
-        <v>103.5</v>
+        <v>104.3</v>
       </c>
       <c r="I255" t="n">
-        <v>129.9</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>108.6</v>
+        <v>108.2</v>
       </c>
       <c r="C256" t="n">
-        <v>74.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D256" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>113.3</v>
+        <v>105.1</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="n">
-        <v>104.5</v>
+        <v>103.6</v>
       </c>
       <c r="I256" t="n">
-        <v>111.1</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>101.6</v>
+        <v>112.6</v>
       </c>
       <c r="C257" t="n">
-        <v>99.5</v>
+        <v>87.7</v>
       </c>
       <c r="D257" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>102.4</v>
+        <v>108.1</v>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
-        <v>101.4</v>
+        <v>102.3</v>
       </c>
       <c r="I257" t="n">
-        <v>112.1</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>106.3</v>
+        <v>116</v>
       </c>
       <c r="C258" t="n">
-        <v>92</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D258" t="n">
-        <v>101.6</v>
+        <v>100.7</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>105.4</v>
+        <v>116.6</v>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="n">
-        <v>104.3</v>
+        <v>100.9</v>
       </c>
       <c r="I258" t="n">
-        <v>103.7</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>108.2</v>
+        <v>116.5</v>
       </c>
       <c r="C259" t="n">
-        <v>89.5</v>
+        <v>76.7</v>
       </c>
       <c r="D259" t="n">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>105.1</v>
+        <v>120.1</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="n">
-        <v>103.6</v>
+        <v>102.6</v>
       </c>
       <c r="I259" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>112.6</v>
+        <v>116.3</v>
       </c>
       <c r="C260" t="n">
-        <v>87.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D260" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>108.1</v>
+        <v>118</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="n">
-        <v>102.3</v>
+        <v>104.2</v>
       </c>
       <c r="I260" t="n">
-        <v>98.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>116</v>
+        <v>114.3</v>
       </c>
       <c r="C261" t="n">
-        <v>86.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D261" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>116.6</v>
+        <v>115.6</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="n">
-        <v>100.9</v>
+        <v>105</v>
       </c>
       <c r="I261" t="n">
-        <v>104.4</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>116.5</v>
+        <v>111.7</v>
       </c>
       <c r="C262" t="n">
-        <v>76.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>120.1</v>
+        <v>113.8</v>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
-        <v>102.6</v>
+        <v>100.1</v>
       </c>
       <c r="I262" t="n">
-        <v>100.5</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>116.3</v>
+        <v>110.1</v>
       </c>
       <c r="C263" t="n">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>118</v>
+        <v>113.9</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="n">
-        <v>104.2</v>
+        <v>100.1</v>
       </c>
       <c r="I263" t="n">
-        <v>95.59999999999999</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>114.3</v>
+        <v>109.8</v>
       </c>
       <c r="C264" t="n">
-        <v>69</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D264" t="n">
-        <v>101</v>
+        <v>101.7</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>115.6</v>
+        <v>119.1</v>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="n">
-        <v>105</v>
+        <v>103.5</v>
       </c>
       <c r="I264" t="n">
-        <v>98.09999999999999</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>111.7</v>
+        <v>108.6</v>
       </c>
       <c r="C265" t="n">
-        <v>67.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D265" t="n">
-        <v>100.9</v>
+        <v>101.9</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>113.8</v>
+        <v>113.3</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="n">
-        <v>100.1</v>
+        <v>104.5</v>
       </c>
       <c r="I265" t="n">
-        <v>98.09999999999999</v>
+        <v>111.1</v>
       </c>
     </row>
   </sheetData>
